--- a/outputs-HGR-r202-archive/g__Lachnospira.xlsx
+++ b/outputs-HGR-r202-archive/g__Lachnospira.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,215 +855,215 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12963.fa</t>
+          <t>even_MAG-GUT13363.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01952172708468086</v>
+        <v>0.04406568793160816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0009446925394720661</v>
+        <v>0.3921188633473739</v>
       </c>
       <c r="D8" t="n">
-        <v>3.489589965132263e-06</v>
+        <v>0.002219442768210374</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007482772533459243</v>
+        <v>0.07356842694197142</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9740341979708604</v>
+        <v>4.961160797859639e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000347043216412771</v>
+        <v>0.3609521176444743</v>
       </c>
       <c r="H8" t="n">
-        <v>7.860049111132374e-05</v>
+        <v>0.004084458294678326</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003130283252125854</v>
+        <v>0.004721211408874993</v>
       </c>
       <c r="J8" t="n">
-        <v>2.162977386750706e-06</v>
+        <v>0.007047539425482013</v>
       </c>
       <c r="K8" t="n">
-        <v>2.76113278792887e-05</v>
+        <v>0.1074703029583002</v>
       </c>
       <c r="L8" t="n">
-        <v>5.974188990591566e-05</v>
+        <v>0.0004089238922246548</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001102172406853747</v>
+        <v>0.003293413778822865</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9740341979708604</v>
+        <v>0.3921188633473739</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13136.fa</t>
+          <t>even_MAG-GUT13422.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0168336747507951</v>
+        <v>0.07888078737097597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001427085439799569</v>
+        <v>0.1692738711042423</v>
       </c>
       <c r="D9" t="n">
-        <v>2.116424531380928e-06</v>
+        <v>0.003648190788660298</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0009524861023559836</v>
+        <v>0.1954785866850907</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9744430669330161</v>
+        <v>0.0002335071364703319</v>
       </c>
       <c r="G9" t="n">
-        <v>3.942659688480932e-05</v>
+        <v>0.3926994190543268</v>
       </c>
       <c r="H9" t="n">
-        <v>1.204039876464426e-05</v>
+        <v>0.05415542284913402</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005090384038880432</v>
+        <v>0.006850483519832295</v>
       </c>
       <c r="J9" t="n">
-        <v>4.833032968962297e-07</v>
+        <v>0.03173639340880473</v>
       </c>
       <c r="K9" t="n">
-        <v>2.440490675152991e-05</v>
+        <v>0.05747861136242503</v>
       </c>
       <c r="L9" t="n">
-        <v>4.311923585958679e-05</v>
+        <v>0.0009433070134607535</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001131711869064014</v>
+        <v>0.008621419706577064</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9744430669330161</v>
+        <v>0.3926994190543268</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13251.fa</t>
+          <t>even_MAG-GUT13478.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03833650253529134</v>
+        <v>0.03786731586172875</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01325414469214863</v>
+        <v>0.4098986739440001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02506678290148524</v>
+        <v>0.001837018891636721</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7986233150548089</v>
+        <v>0.1007205758622571</v>
       </c>
       <c r="F10" t="n">
-        <v>9.178299629121645e-05</v>
+        <v>0.0001053966261112341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02876006694591221</v>
+        <v>0.3835201273586939</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02412724555769806</v>
+        <v>0.002465269789630805</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007836474960064376</v>
+        <v>0.001992284850860512</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002319711364021071</v>
+        <v>0.02588243661977134</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0124639619543939</v>
+        <v>0.03181962184549793</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004183488718335691</v>
+        <v>0.0002256131269548467</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04870166216605141</v>
+        <v>0.003665665222856722</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7986233150548089</v>
+        <v>0.4098986739440001</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13363.fa</t>
+          <t>even_MAG-GUT13704.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04406568793160816</v>
+        <v>0.04582350770951593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3921188633473739</v>
+        <v>0.7297223902424763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002219442768210374</v>
+        <v>0.001868403752528163</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07356842694197142</v>
+        <v>0.1092234355181549</v>
       </c>
       <c r="F11" t="n">
-        <v>4.961160797859639e-05</v>
+        <v>6.785784607023321e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3609521176444743</v>
+        <v>0.07521439217604198</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004084458294678326</v>
+        <v>0.009697647369523003</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004721211408874993</v>
+        <v>0.003786069861730057</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007047539425482013</v>
+        <v>0.02015906152432431</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1074703029583002</v>
+        <v>0.0014556582602086</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004089238922246548</v>
+        <v>0.0003765278701365684</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003293413778822865</v>
+        <v>0.002605047869290064</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3921188633473739</v>
+        <v>0.7297223902424763</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1072,222 +1072,222 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13422.fa</t>
+          <t>even_MAG-GUT13987.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07888078737097597</v>
+        <v>0.01987229398664435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1692738711042423</v>
+        <v>0.4496511914577001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003648190788660298</v>
+        <v>0.004430022108250813</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1954785866850907</v>
+        <v>0.05427033203810835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002335071364703319</v>
+        <v>4.391208157469083e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3926994190543268</v>
+        <v>0.3825607916404423</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05415542284913402</v>
+        <v>0.003307222915900531</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006850483519832295</v>
+        <v>0.002248404200074812</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03173639340880473</v>
+        <v>0.06314393793350076</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05747861136242503</v>
+        <v>0.0185411220482277</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009433070134607535</v>
+        <v>0.0004417144338134252</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008621419706577064</v>
+        <v>0.001489055155762183</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3926994190543268</v>
+        <v>0.4496511914577001</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13478.fa</t>
+          <t>even_MAG-GUT14283.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03786731586172875</v>
+        <v>0.08064529762010854</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4098986739440001</v>
+        <v>0.202669081924972</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001837018891636721</v>
+        <v>0.003806621894864616</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1007205758622571</v>
+        <v>0.2761610439464886</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0001053966261112341</v>
+        <v>0.0004031950562191532</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3835201273586939</v>
+        <v>0.369000677124646</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002465269789630805</v>
+        <v>0.006199174702999592</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001992284850860512</v>
+        <v>0.002518492213814921</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02588243661977134</v>
+        <v>0.03891685110176347</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03181962184549793</v>
+        <v>0.006728627078883983</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002256131269548467</v>
+        <v>0.0003675028055989741</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003665665222856722</v>
+        <v>0.01258343452964023</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4098986739440001</v>
+        <v>0.369000677124646</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13704.fa</t>
+          <t>even_MAG-GUT14308.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04582350770951593</v>
+        <v>0.0696470010735868</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7297223902424763</v>
+        <v>0.02412958259832317</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001868403752528163</v>
+        <v>0.02146545064785258</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1092234355181549</v>
+        <v>0.7732194044435934</v>
       </c>
       <c r="F14" t="n">
-        <v>6.785784607023321e-05</v>
+        <v>0.000184300213004449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07521439217604198</v>
+        <v>0.01449793209159786</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009697647369523003</v>
+        <v>0.05455561539766873</v>
       </c>
       <c r="I14" t="n">
-        <v>0.003786069861730057</v>
+        <v>0.007590814977918678</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02015906152432431</v>
+        <v>0.0135110929698493</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0014556582602086</v>
+        <v>7.3281507492973e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003765278701365684</v>
+        <v>0.0006208924175371544</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002605047869290064</v>
+        <v>0.02050463166157475</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7297223902424763</v>
+        <v>0.7732194044435934</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13987.fa</t>
+          <t>even_MAG-GUT15026.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01987229398664435</v>
+        <v>0.02840826418450201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4496511914577001</v>
+        <v>0.5564241039550293</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004430022108250813</v>
+        <v>0.01455042029651293</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05427033203810835</v>
+        <v>0.0475879389147463</v>
       </c>
       <c r="F15" t="n">
-        <v>4.391208157469083e-05</v>
+        <v>5.64538176299102e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3825607916404423</v>
+        <v>0.2932471630145171</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003307222915900531</v>
+        <v>0.01868938068741319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002248404200074812</v>
+        <v>0.005813757444778854</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06314393793350076</v>
+        <v>0.03131167386483927</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0185411220482277</v>
+        <v>0.0008181998511517865</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004417144338134252</v>
+        <v>0.001187113903769</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001489055155762183</v>
+        <v>0.00190553006511017</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4496511914577001</v>
+        <v>0.5564241039550293</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1303,327 +1303,327 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14257.fa</t>
+          <t>even_MAG-GUT17013.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1206622440091481</v>
+        <v>0.0173983918303819</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007371844805241495</v>
+        <v>6.248838745149796e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02245499403634493</v>
+        <v>0.9303867647511593</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03442629512261709</v>
+        <v>0.007794278610382857</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01615371786515939</v>
+        <v>1.916705094743766e-05</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002792371255213413</v>
+        <v>0.002407145801511329</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02894891299399738</v>
+        <v>0.03059931479117882</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7075018687126863</v>
+        <v>0.007042530751030143</v>
       </c>
       <c r="J16" t="n">
-        <v>0.004934485504209035</v>
+        <v>0.002802461333430642</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0006704053003093136</v>
+        <v>0.000367428365732627</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004021660696000603</v>
+        <v>0.0001800076766548613</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05257433382876505</v>
+        <v>0.0009400206501386462</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7075018687126863</v>
+        <v>0.9303867647511593</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp900316325</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp900316325</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14283.fa</t>
+          <t>even_MAG-GUT1788.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08064529762010854</v>
+        <v>0.04951789553558174</v>
       </c>
       <c r="C17" t="n">
-        <v>0.202669081924972</v>
+        <v>0.4899356979366851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003806621894864616</v>
+        <v>0.01578626918151895</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2761610439464886</v>
+        <v>0.1251928022402761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004031950562191532</v>
+        <v>9.173489980280272e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.369000677124646</v>
+        <v>0.2519317796042979</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006199174702999592</v>
+        <v>0.01528337839400954</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002518492213814921</v>
+        <v>0.004877985782713166</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03891685110176347</v>
+        <v>0.04029228697882909</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006728627078883983</v>
+        <v>0.003508255532128518</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003675028055989741</v>
+        <v>0.001225754666378086</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01258343452964023</v>
+        <v>0.002356159247778788</v>
       </c>
       <c r="N17" t="n">
-        <v>0.369000677124646</v>
+        <v>0.4899356979366851</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14308.fa</t>
+          <t>even_MAG-GUT18629.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0696470010735868</v>
+        <v>0.09934073092404483</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02412958259832317</v>
+        <v>0.3428209218418196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02146545064785258</v>
+        <v>0.009788690752617358</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7732194044435934</v>
+        <v>0.136920436407856</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000184300213004449</v>
+        <v>0.0001412803131690165</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01449793209159786</v>
+        <v>0.364647494912511</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05455561539766873</v>
+        <v>0.007780876274018445</v>
       </c>
       <c r="I18" t="n">
-        <v>0.007590814977918678</v>
+        <v>0.005392101241293327</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0135110929698493</v>
+        <v>0.01299516665466445</v>
       </c>
       <c r="K18" t="n">
-        <v>7.3281507492973e-05</v>
+        <v>0.01612144756704097</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006208924175371544</v>
+        <v>0.0004638992207940674</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02050463166157475</v>
+        <v>0.003586953890171319</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7732194044435934</v>
+        <v>0.364647494912511</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15026.fa</t>
+          <t>even_MAG-GUT18907.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02840826418450201</v>
+        <v>0.01524242999080176</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5564241039550293</v>
+        <v>0.4025328877124037</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01455042029651293</v>
+        <v>0.0008487076043060054</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0475879389147463</v>
+        <v>0.03827019644254662</v>
       </c>
       <c r="F19" t="n">
-        <v>5.64538176299102e-05</v>
+        <v>3.865595092325714e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2932471630145171</v>
+        <v>0.5201016830386054</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01868938068741319</v>
+        <v>0.01262182300992625</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005813757444778854</v>
+        <v>0.0007934372798102761</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03131167386483927</v>
+        <v>0.00765209123665144</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0008181998511517865</v>
+        <v>0.0003002131919643427</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001187113903769</v>
+        <v>0.0002259212189099235</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00190553006511017</v>
+        <v>0.001371953323151161</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5564241039550293</v>
+        <v>0.5201016830386054</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1636.fa</t>
+          <t>even_MAG-GUT19065.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02197499426882851</v>
+        <v>0.02114639018342673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001234857909879229</v>
+        <v>0.619093675619043</v>
       </c>
       <c r="D20" t="n">
-        <v>5.460112033899949e-06</v>
+        <v>0.0007626781544067046</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0008737111285537281</v>
+        <v>0.140991485306757</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9707575669637033</v>
+        <v>6.030737944480411e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000183128749502256</v>
+        <v>0.1680666051304665</v>
       </c>
       <c r="H20" t="n">
-        <v>5.428753838943617e-05</v>
+        <v>0.008899562115472014</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003802287008309541</v>
+        <v>0.001263621860400691</v>
       </c>
       <c r="J20" t="n">
-        <v>1.568117102449915e-06</v>
+        <v>0.03612889741038199</v>
       </c>
       <c r="K20" t="n">
-        <v>6.063681222968149e-05</v>
+        <v>0.0004164239493325931</v>
       </c>
       <c r="L20" t="n">
-        <v>4.534971549643607e-05</v>
+        <v>0.0003278122628647303</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001006151675971579</v>
+        <v>0.002842540628003071</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9707575669637033</v>
+        <v>0.619093675619043</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17013.fa</t>
+          <t>even_MAG-GUT19226.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0173983918303819</v>
+        <v>0.02066578639512685</v>
       </c>
       <c r="C21" t="n">
-        <v>6.248838745149796e-05</v>
+        <v>0.0002084981273599534</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9303867647511593</v>
+        <v>0.8822398647764943</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007794278610382857</v>
+        <v>0.06730622361285608</v>
       </c>
       <c r="F21" t="n">
-        <v>1.916705094743766e-05</v>
+        <v>4.924378419576374e-05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.002407145801511329</v>
+        <v>0.01326750821671209</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03059931479117882</v>
+        <v>0.008519505118786444</v>
       </c>
       <c r="I21" t="n">
-        <v>0.007042530751030143</v>
+        <v>0.002103813567068165</v>
       </c>
       <c r="J21" t="n">
-        <v>0.002802461333430642</v>
+        <v>0.005058219736446759</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000367428365732627</v>
+        <v>2.972898465990091e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0001800076766548613</v>
+        <v>0.0001269212822513035</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0009400206501386462</v>
+        <v>0.0004514424842361309</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9303867647511593</v>
+        <v>0.8822398647764943</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1639,47 +1639,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1788.fa</t>
+          <t>even_MAG-GUT19533.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04951789553558174</v>
+        <v>0.02461660785611706</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4899356979366851</v>
+        <v>0.6453785442558967</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01578626918151895</v>
+        <v>0.001101967330808643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1251928022402761</v>
+        <v>0.09354938601688523</v>
       </c>
       <c r="F22" t="n">
-        <v>9.173489980280272e-05</v>
+        <v>5.890668353811797e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2519317796042979</v>
+        <v>0.201462761645716</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01528337839400954</v>
+        <v>0.003125872919104069</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004877985782713166</v>
+        <v>0.001642766069171161</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04029228697882909</v>
+        <v>0.02343365918003308</v>
       </c>
       <c r="K22" t="n">
-        <v>0.003508255532128518</v>
+        <v>0.003805759565467268</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001225754666378086</v>
+        <v>0.0002780095695308659</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002356159247778788</v>
+        <v>0.001545758907731665</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4899356979366851</v>
+        <v>0.6453785442558967</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1688,222 +1688,222 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18333.fa</t>
+          <t>even_MAG-GUT19808.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01054296945902003</v>
+        <v>0.061798185126075</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004191769320169546</v>
+        <v>0.5237610111948693</v>
       </c>
       <c r="D23" t="n">
-        <v>2.787741839004425e-07</v>
+        <v>0.01071058072987282</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0002980623455792385</v>
+        <v>0.1134258464006329</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9826833435122124</v>
+        <v>0.000118581934151057</v>
       </c>
       <c r="G23" t="n">
-        <v>9.859461678745859e-05</v>
+        <v>0.1529353505354175</v>
       </c>
       <c r="H23" t="n">
-        <v>1.283127719855437e-06</v>
+        <v>0.03342195645554892</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001337095294854025</v>
+        <v>0.004987584391727733</v>
       </c>
       <c r="J23" t="n">
-        <v>8.689597971691489e-08</v>
+        <v>0.09155238940315204</v>
       </c>
       <c r="K23" t="n">
-        <v>6.229077320358276e-05</v>
+        <v>0.003136139425433488</v>
       </c>
       <c r="L23" t="n">
-        <v>1.563686655560168e-05</v>
+        <v>0.001445157762043589</v>
       </c>
       <c r="M23" t="n">
-        <v>0.000768589013734573</v>
+        <v>0.002707216641075505</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9826833435122124</v>
+        <v>0.5237610111948693</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18629.fa</t>
+          <t>even_MAG-GUT20063.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09934073092404483</v>
+        <v>0.01735385260505203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3428209218418196</v>
+        <v>0.0001047071329642703</v>
       </c>
       <c r="D24" t="n">
-        <v>0.009788690752617358</v>
+        <v>0.9250202444280171</v>
       </c>
       <c r="E24" t="n">
-        <v>0.136920436407856</v>
+        <v>0.03624512453186779</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0001412803131690165</v>
+        <v>4.490253818955559e-05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.364647494912511</v>
+        <v>0.003990625953525186</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007780876274018445</v>
+        <v>0.01315380345254767</v>
       </c>
       <c r="I24" t="n">
-        <v>0.005392101241293327</v>
+        <v>0.001250447735919589</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01299516665466445</v>
+        <v>0.001065646398113333</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01612144756704097</v>
+        <v>0.000605520690185832</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004638992207940674</v>
+        <v>5.484604230334714e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003586953890171319</v>
+        <v>0.001110278491314488</v>
       </c>
       <c r="N24" t="n">
-        <v>0.364647494912511</v>
+        <v>0.9250202444280171</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT18907.fa</t>
+          <t>even_MAG-GUT20810.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01524242999080176</v>
+        <v>0.05524277852663675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4025328877124037</v>
+        <v>0.4497629153477108</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0008487076043060054</v>
+        <v>0.006663570825785253</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03827019644254662</v>
+        <v>0.126221284511489</v>
       </c>
       <c r="F25" t="n">
-        <v>3.865595092325714e-05</v>
+        <v>0.0001231127474833868</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5201016830386054</v>
+        <v>0.3072935643525657</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01262182300992625</v>
+        <v>0.007799396991913506</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0007934372798102761</v>
+        <v>0.002912936807924587</v>
       </c>
       <c r="J25" t="n">
-        <v>0.00765209123665144</v>
+        <v>0.0353199878489806</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003002131919643427</v>
+        <v>0.004141340789288786</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002259212189099235</v>
+        <v>0.0005537053714625673</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001371953323151161</v>
+        <v>0.003965405878758958</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5201016830386054</v>
+        <v>0.4497629153477108</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19065.fa</t>
+          <t>even_MAG-GUT22642.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02114639018342673</v>
+        <v>0.02660325875217336</v>
       </c>
       <c r="C26" t="n">
-        <v>0.619093675619043</v>
+        <v>0.655413618906883</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0007626781544067046</v>
+        <v>0.0113247022210352</v>
       </c>
       <c r="E26" t="n">
-        <v>0.140991485306757</v>
+        <v>0.09537943908268012</v>
       </c>
       <c r="F26" t="n">
-        <v>6.030737944480411e-05</v>
+        <v>5.266390324989969e-05</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1680666051304665</v>
+        <v>0.09365148442895284</v>
       </c>
       <c r="H26" t="n">
-        <v>0.008899562115472014</v>
+        <v>0.01582040038083415</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001263621860400691</v>
+        <v>0.01014198790553444</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03612889741038199</v>
+        <v>0.08357410967910185</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004164239493325931</v>
+        <v>0.001421338661130325</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003278122628647303</v>
+        <v>0.002820970088294344</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002842540628003071</v>
+        <v>0.003796025990130457</v>
       </c>
       <c r="N26" t="n">
-        <v>0.619093675619043</v>
+        <v>0.655413618906883</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1919,47 +1919,47 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19226.fa</t>
+          <t>even_MAG-GUT23546.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02066578639512685</v>
+        <v>0.01581277772102858</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002084981273599534</v>
+        <v>0.000473353067963342</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8822398647764943</v>
+        <v>0.85963125946583</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06730622361285608</v>
+        <v>0.03931787686606233</v>
       </c>
       <c r="F27" t="n">
-        <v>4.924378419576374e-05</v>
+        <v>3.124025350373545e-05</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01326750821671209</v>
+        <v>0.0593617160807846</v>
       </c>
       <c r="H27" t="n">
-        <v>0.008519505118786444</v>
+        <v>0.0174707768768687</v>
       </c>
       <c r="I27" t="n">
-        <v>0.002103813567068165</v>
+        <v>0.00450718161215961</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005058219736446759</v>
+        <v>0.001444381991179644</v>
       </c>
       <c r="K27" t="n">
-        <v>2.972898465990091e-06</v>
+        <v>0.0005928401994441502</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0001269212822513035</v>
+        <v>9.008582528585221e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0004514424842361309</v>
+        <v>0.001266510039889525</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8822398647764943</v>
+        <v>0.85963125946583</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1975,103 +1975,103 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19533.fa</t>
+          <t>even_MAG-GUT23608.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.02461660785611706</v>
+        <v>0.01236402975785602</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6453785442558967</v>
+        <v>1.018604304526841e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001101967330808643</v>
+        <v>0.9416284535943397</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09354938601688523</v>
+        <v>0.003862237962851857</v>
       </c>
       <c r="F28" t="n">
-        <v>5.890668353811797e-05</v>
+        <v>2.103394267871099e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.201462761645716</v>
+        <v>0.006147491590016256</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003125872919104069</v>
+        <v>0.02507853660784703</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001642766069171161</v>
+        <v>0.008056700637174107</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02343365918003308</v>
+        <v>0.002475208689717549</v>
       </c>
       <c r="K28" t="n">
-        <v>0.003805759565467268</v>
+        <v>2.311539607056541e-05</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0002780095695308659</v>
+        <v>9.693998420574119e-05</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001545758907731665</v>
+        <v>0.0002360657941971029</v>
       </c>
       <c r="N28" t="n">
-        <v>0.6453785442558967</v>
+        <v>0.9416284535943397</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19808.fa</t>
+          <t>even_MAG-GUT23691.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.061798185126075</v>
+        <v>0.05644715605424286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5237610111948693</v>
+        <v>0.4730150604804049</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01071058072987282</v>
+        <v>0.04917229901001418</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1134258464006329</v>
+        <v>0.2033087888908032</v>
       </c>
       <c r="F29" t="n">
-        <v>0.000118581934151057</v>
+        <v>0.0001335408817070862</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1529353505354175</v>
+        <v>0.08547830710062697</v>
       </c>
       <c r="H29" t="n">
-        <v>0.03342195645554892</v>
+        <v>0.0183601870641397</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004987584391727733</v>
+        <v>0.008325488945004506</v>
       </c>
       <c r="J29" t="n">
-        <v>0.09155238940315204</v>
+        <v>0.09433155693267672</v>
       </c>
       <c r="K29" t="n">
-        <v>0.003136139425433488</v>
+        <v>0.002623901776260616</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001445157762043589</v>
+        <v>0.002191722963155656</v>
       </c>
       <c r="M29" t="n">
-        <v>0.002707216641075505</v>
+        <v>0.00661198990096373</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5237610111948693</v>
+        <v>0.4730150604804049</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2087,327 +2087,327 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20063.fa</t>
+          <t>even_MAG-GUT23960.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01735385260505203</v>
+        <v>0.05958421836125754</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001047071329642703</v>
+        <v>0.4855128032537933</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9250202444280171</v>
+        <v>0.01584207497468747</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03624512453186779</v>
+        <v>0.1047394590995273</v>
       </c>
       <c r="F30" t="n">
-        <v>4.490253818955559e-05</v>
+        <v>0.0001109084723870547</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003990625953525186</v>
+        <v>0.2314978509436481</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01315380345254767</v>
+        <v>0.01163713615100363</v>
       </c>
       <c r="I30" t="n">
-        <v>0.001250447735919589</v>
+        <v>0.00593281421206354</v>
       </c>
       <c r="J30" t="n">
-        <v>0.001065646398113333</v>
+        <v>0.07856943342393595</v>
       </c>
       <c r="K30" t="n">
-        <v>0.000605520690185832</v>
+        <v>0.001552874130549996</v>
       </c>
       <c r="L30" t="n">
-        <v>5.484604230334714e-05</v>
+        <v>0.001154802684907274</v>
       </c>
       <c r="M30" t="n">
-        <v>0.001110278491314488</v>
+        <v>0.003865624292238836</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9250202444280171</v>
+        <v>0.4855128032537933</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20745.fa</t>
+          <t>even_MAG-GUT24105.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02550170106790689</v>
+        <v>0.0379472383533096</v>
       </c>
       <c r="C31" t="n">
-        <v>0.00226982966141416</v>
+        <v>0.6556046493293466</v>
       </c>
       <c r="D31" t="n">
-        <v>4.888747412076249e-06</v>
+        <v>0.005362293200075922</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001820012830886878</v>
+        <v>0.08860316796095194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9500518064081399</v>
+        <v>5.679489258316774e-05</v>
       </c>
       <c r="G31" t="n">
-        <v>6.596609174893236e-06</v>
+        <v>0.1747455806789192</v>
       </c>
       <c r="H31" t="n">
-        <v>7.439522122071242e-05</v>
+        <v>0.007452128960049711</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01925625007276978</v>
+        <v>0.003266026950537671</v>
       </c>
       <c r="J31" t="n">
-        <v>2.764240335180542e-06</v>
+        <v>0.004521958710699912</v>
       </c>
       <c r="K31" t="n">
-        <v>1.688085016117377e-05</v>
+        <v>0.01947319429092727</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0001842914667850588</v>
+        <v>0.0005671269593186094</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0008105828237932477</v>
+        <v>0.002399839713280604</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9500518064081399</v>
+        <v>0.6556046493293466</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT20810.fa</t>
+          <t>even_MAG-GUT24441.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.05524277852663675</v>
+        <v>0.02549942172583492</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4497629153477108</v>
+        <v>0.0001334169272339703</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006663570825785253</v>
+        <v>0.9175325253484893</v>
       </c>
       <c r="E32" t="n">
-        <v>0.126221284511489</v>
+        <v>0.01015223858417425</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0001231127474833868</v>
+        <v>2.297893303350531e-05</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3072935643525657</v>
+        <v>0.002523460954817813</v>
       </c>
       <c r="H32" t="n">
-        <v>0.007799396991913506</v>
+        <v>0.02398012328836849</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002912936807924587</v>
+        <v>0.01170220354202704</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0353199878489806</v>
+        <v>0.005356425099652532</v>
       </c>
       <c r="K32" t="n">
-        <v>0.004141340789288786</v>
+        <v>2.735173045412028e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0005537053714625673</v>
+        <v>0.0003009129908911393</v>
       </c>
       <c r="M32" t="n">
-        <v>0.003965405878758958</v>
+        <v>0.002768940875022898</v>
       </c>
       <c r="N32" t="n">
-        <v>0.4497629153477108</v>
+        <v>0.9175325253484893</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22642.fa</t>
+          <t>even_MAG-GUT24507.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02660325875217336</v>
+        <v>0.07805447485548581</v>
       </c>
       <c r="C33" t="n">
-        <v>0.655413618906883</v>
+        <v>0.01565576309625113</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0113247022210352</v>
+        <v>0.03720466380479037</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09537943908268012</v>
+        <v>0.7333030091061977</v>
       </c>
       <c r="F33" t="n">
-        <v>5.266390324989969e-05</v>
+        <v>0.0001949873867106832</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09365148442895284</v>
+        <v>0.01022798176157305</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01582040038083415</v>
+        <v>0.03476546321464191</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01014198790553444</v>
+        <v>0.01354628955854206</v>
       </c>
       <c r="J33" t="n">
-        <v>0.08357410967910185</v>
+        <v>0.01341150436611551</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001421338661130325</v>
+        <v>0.00188115553541035</v>
       </c>
       <c r="L33" t="n">
-        <v>0.002820970088294344</v>
+        <v>0.0006748607624973916</v>
       </c>
       <c r="M33" t="n">
-        <v>0.003796025990130457</v>
+        <v>0.06107984655178397</v>
       </c>
       <c r="N33" t="n">
-        <v>0.655413618906883</v>
+        <v>0.7333030091061977</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2327.fa</t>
+          <t>even_MAG-GUT24534.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.02507949366179811</v>
+        <v>0.03716397626752636</v>
       </c>
       <c r="C34" t="n">
-        <v>0.009264585054179307</v>
+        <v>0.5784929850291225</v>
       </c>
       <c r="D34" t="n">
-        <v>3.514036265368034e-06</v>
+        <v>0.003367754413438822</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0008976703463604961</v>
+        <v>0.07444181730774373</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9589120397741645</v>
+        <v>6.028201146494981e-05</v>
       </c>
       <c r="G34" t="n">
-        <v>7.534535727678519e-05</v>
+        <v>0.259900538643425</v>
       </c>
       <c r="H34" t="n">
-        <v>6.113555560296511e-05</v>
+        <v>0.008360751375828663</v>
       </c>
       <c r="I34" t="n">
-        <v>0.004827399450572008</v>
+        <v>0.004230347071430898</v>
       </c>
       <c r="J34" t="n">
-        <v>2.188077981230445e-06</v>
+        <v>0.02794408412676455</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001250678894828869</v>
+        <v>0.003694155844573181</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0001192200107163269</v>
+        <v>0.0005640489427399827</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0006323407855999653</v>
+        <v>0.001779258965941336</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9589120397741645</v>
+        <v>0.5784929850291225</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23546.fa</t>
+          <t>even_MAG-GUT27018.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01581277772102858</v>
+        <v>0.03600164672109385</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000473353067963342</v>
+        <v>0.0003128767187919734</v>
       </c>
       <c r="D35" t="n">
-        <v>0.85963125946583</v>
+        <v>0.8829603357144467</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03931787686606233</v>
+        <v>0.05185669966261154</v>
       </c>
       <c r="F35" t="n">
-        <v>3.124025350373545e-05</v>
+        <v>7.555831475864148e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0593617160807846</v>
+        <v>0.009131259362008837</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0174707768768687</v>
+        <v>0.01358818199528987</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00450718161215961</v>
+        <v>0.001804234031878676</v>
       </c>
       <c r="J35" t="n">
-        <v>0.001444381991179644</v>
+        <v>0.00253356750204995</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0005928401994441502</v>
+        <v>0.0001796723116140593</v>
       </c>
       <c r="L35" t="n">
-        <v>9.008582528585221e-05</v>
+        <v>9.240395847249705e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>0.001266510039889525</v>
+        <v>0.001463563706983651</v>
       </c>
       <c r="N35" t="n">
-        <v>0.85963125946583</v>
+        <v>0.8829603357144467</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2423,103 +2423,103 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23608.fa</t>
+          <t>even_MAG-GUT27053.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01236402975785602</v>
+        <v>0.03877688752504729</v>
       </c>
       <c r="C36" t="n">
-        <v>1.018604304526841e-05</v>
+        <v>0.5062303513438469</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9416284535943397</v>
+        <v>0.00118996592767659</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003862237962851857</v>
+        <v>0.1560759665614158</v>
       </c>
       <c r="F36" t="n">
-        <v>2.103394267871099e-05</v>
+        <v>8.011740271702327e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006147491590016256</v>
+        <v>0.222892823990601</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02507853660784703</v>
+        <v>0.01057933879629116</v>
       </c>
       <c r="I36" t="n">
-        <v>0.008056700637174107</v>
+        <v>0.002493946132103804</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002475208689717549</v>
+        <v>0.004463373221258264</v>
       </c>
       <c r="K36" t="n">
-        <v>2.311539607056541e-05</v>
+        <v>0.05345204960415458</v>
       </c>
       <c r="L36" t="n">
-        <v>9.693998420574119e-05</v>
+        <v>0.0003123166364952115</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0002360657941971029</v>
+        <v>0.003452862858392516</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9416284535943397</v>
+        <v>0.5062303513438469</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23691.fa</t>
+          <t>even_MAG-GUT27121.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.05644715605424286</v>
+        <v>0.08661564582570373</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4730150604804049</v>
+        <v>0.3522843245763244</v>
       </c>
       <c r="D37" t="n">
-        <v>0.04917229901001418</v>
+        <v>0.02331780376986815</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2033087888908032</v>
+        <v>0.100569149509687</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0001335408817070862</v>
+        <v>0.000154971155535073</v>
       </c>
       <c r="G37" t="n">
-        <v>0.08547830710062697</v>
+        <v>0.1683178224635878</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0183601870641397</v>
+        <v>0.01263111650020522</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008325488945004506</v>
+        <v>0.00605316243312316</v>
       </c>
       <c r="J37" t="n">
-        <v>0.09433155693267672</v>
+        <v>0.05106522780474829</v>
       </c>
       <c r="K37" t="n">
-        <v>0.002623901776260616</v>
+        <v>0.1951021883658766</v>
       </c>
       <c r="L37" t="n">
-        <v>0.002191722963155656</v>
+        <v>0.0007231942617945011</v>
       </c>
       <c r="M37" t="n">
-        <v>0.00661198990096373</v>
+        <v>0.003165393333546375</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4730150604804049</v>
+        <v>0.3522843245763244</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2535,47 +2535,47 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23960.fa</t>
+          <t>even_MAG-GUT28983.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.05958421836125754</v>
+        <v>0.01922082892552823</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4855128032537933</v>
+        <v>0.573068682230596</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01584207497468747</v>
+        <v>0.005655494674270021</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1047394590995273</v>
+        <v>0.0971899759571085</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0001109084723870547</v>
+        <v>3.557803540388326e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2314978509436481</v>
+        <v>0.2733241119577017</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01163713615100363</v>
+        <v>0.006953568599534921</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00593281421206354</v>
+        <v>0.002744275073809332</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07856943342393595</v>
+        <v>0.00278605566436108</v>
       </c>
       <c r="K38" t="n">
-        <v>0.001552874130549996</v>
+        <v>0.01577392857183495</v>
       </c>
       <c r="L38" t="n">
-        <v>0.001154802684907274</v>
+        <v>0.000607902151962897</v>
       </c>
       <c r="M38" t="n">
-        <v>0.003865624292238836</v>
+        <v>0.002639598157888295</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4855128032537933</v>
+        <v>0.573068682230596</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2591,383 +2591,383 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24070.fa</t>
+          <t>even_MAG-GUT30099.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0271507699108407</v>
+        <v>0.05857529477732484</v>
       </c>
       <c r="C39" t="n">
-        <v>0.006354982532159451</v>
+        <v>0.4313594626975648</v>
       </c>
       <c r="D39" t="n">
-        <v>3.675227911390144e-06</v>
+        <v>0.01297288074876047</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00188049317178536</v>
+        <v>0.1371297650108728</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9433378732151295</v>
+        <v>9.310760103271835e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>1.029749967560076e-05</v>
+        <v>0.3270095433944824</v>
       </c>
       <c r="H39" t="n">
-        <v>3.905224283002186e-05</v>
+        <v>0.003961505540770141</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01927130296954519</v>
+        <v>0.003620133776908092</v>
       </c>
       <c r="J39" t="n">
-        <v>1.888320294384074e-06</v>
+        <v>0.001461236067005278</v>
       </c>
       <c r="K39" t="n">
-        <v>2.336012985572233e-05</v>
+        <v>0.02206140685956741</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0001282298466985255</v>
+        <v>0.0003155050959316355</v>
       </c>
       <c r="M39" t="n">
-        <v>0.001798074933274061</v>
+        <v>0.001440158429779292</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9433378732151295</v>
+        <v>0.4313594626975648</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24105.fa</t>
+          <t>even_MAG-GUT31741.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0379472383533096</v>
+        <v>0.02300494294047263</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6556046493293466</v>
+        <v>2.154824983289769e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.005362293200075922</v>
+        <v>0.9300542678865383</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08860316796095194</v>
+        <v>0.01218822861754233</v>
       </c>
       <c r="F40" t="n">
-        <v>5.679489258316774e-05</v>
+        <v>2.461197180929599e-05</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1747455806789192</v>
+        <v>0.0009972817832666636</v>
       </c>
       <c r="H40" t="n">
-        <v>0.007452128960049711</v>
+        <v>0.02372825816570221</v>
       </c>
       <c r="I40" t="n">
-        <v>0.003266026950537671</v>
+        <v>0.006299611428575447</v>
       </c>
       <c r="J40" t="n">
-        <v>0.004521958710699912</v>
+        <v>0.002285280008168138</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01947319429092727</v>
+        <v>2.384348227766671e-05</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0005671269593186094</v>
+        <v>8.323055877767899e-05</v>
       </c>
       <c r="M40" t="n">
-        <v>0.002399839713280604</v>
+        <v>0.001288894907036668</v>
       </c>
       <c r="N40" t="n">
-        <v>0.6556046493293466</v>
+        <v>0.9300542678865383</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24113.fa</t>
+          <t>even_MAG-GUT32018.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02678739409837161</v>
+        <v>0.1158434163202078</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00748674255981559</v>
+        <v>0.04813206060191447</v>
       </c>
       <c r="D41" t="n">
-        <v>3.655602737013629e-06</v>
+        <v>0.04349339040576932</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001374620246047615</v>
+        <v>0.6953649070092118</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9582976006057154</v>
+        <v>0.0002592509825459691</v>
       </c>
       <c r="G41" t="n">
-        <v>1.960647185383623e-05</v>
+        <v>0.05117204959020954</v>
       </c>
       <c r="H41" t="n">
-        <v>2.248533270575766e-05</v>
+        <v>0.01231967969219611</v>
       </c>
       <c r="I41" t="n">
-        <v>0.003979952516767402</v>
+        <v>0.00614765740416906</v>
       </c>
       <c r="J41" t="n">
-        <v>1.045632404844308e-06</v>
+        <v>0.002884927910161675</v>
       </c>
       <c r="K41" t="n">
-        <v>4.872549523221472e-05</v>
+        <v>0.005018967923495593</v>
       </c>
       <c r="L41" t="n">
-        <v>4.340514216270524e-05</v>
+        <v>0.0004759203445773349</v>
       </c>
       <c r="M41" t="n">
-        <v>0.001934766296186011</v>
+        <v>0.01888777181554116</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9582976006057154</v>
+        <v>0.6953649070092118</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2417.fa</t>
+          <t>even_MAG-GUT32053.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01554846579485565</v>
+        <v>0.02866603682411571</v>
       </c>
       <c r="C42" t="n">
-        <v>0.002654690995456853</v>
+        <v>0.5912389206346719</v>
       </c>
       <c r="D42" t="n">
-        <v>1.58723202954757e-06</v>
+        <v>0.00289882635148524</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007691537412270971</v>
+        <v>0.06025164962433329</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9756485206196581</v>
+        <v>5.610088521481384e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>3.659677970522892e-05</v>
+        <v>0.2872003317969677</v>
       </c>
       <c r="H42" t="n">
-        <v>7.915743381817471e-06</v>
+        <v>0.005294579326795273</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00411122944834298</v>
+        <v>0.001797077370492521</v>
       </c>
       <c r="J42" t="n">
-        <v>2.120076648217943e-07</v>
+        <v>0.01669044466317547</v>
       </c>
       <c r="K42" t="n">
-        <v>2.979762572960953e-05</v>
+        <v>0.003824125903076752</v>
       </c>
       <c r="L42" t="n">
-        <v>4.082877645923467e-05</v>
+        <v>0.0003101855657143488</v>
       </c>
       <c r="M42" t="n">
-        <v>0.001151001235488971</v>
+        <v>0.001771721053957079</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9756485206196581</v>
+        <v>0.5912389206346719</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24441.fa</t>
+          <t>even_MAG-GUT32130.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02549942172583492</v>
+        <v>0.08749204852187947</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001334169272339703</v>
+        <v>0.002348104931161992</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9175325253484893</v>
+        <v>0.03387950463702342</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01015223858417425</v>
+        <v>0.02713802290850072</v>
       </c>
       <c r="F43" t="n">
-        <v>2.297893303350531e-05</v>
+        <v>0.00576296545466598</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002523460954817813</v>
+        <v>0.0001789446220598405</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02398012328836849</v>
+        <v>0.01189688686584674</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01170220354202704</v>
+        <v>0.7774365849988217</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005356425099652532</v>
+        <v>0.002843513235945921</v>
       </c>
       <c r="K43" t="n">
-        <v>2.735173045412028e-05</v>
+        <v>3.256089694202499e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0003009129908911393</v>
+        <v>0.002287413517060435</v>
       </c>
       <c r="M43" t="n">
-        <v>0.002768940875022898</v>
+        <v>0.04870344941009165</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9175325253484893</v>
+        <v>0.7774365849988217</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira sp900316325</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira sp900316325</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24507.fa</t>
+          <t>even_MAG-GUT32383.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.07805447485548581</v>
+        <v>0.02364142762004175</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01565576309625113</v>
+        <v>7.121421462454506e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03720466380479037</v>
+        <v>0.903608059683937</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7333030091061977</v>
+        <v>0.05655626619610218</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0001949873867106832</v>
+        <v>6.42433707110605e-05</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01022798176157305</v>
+        <v>0.008544472758906756</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03476546321464191</v>
+        <v>0.003863430005545351</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01354628955854206</v>
+        <v>0.001069527444889859</v>
       </c>
       <c r="J44" t="n">
-        <v>0.01341150436611551</v>
+        <v>0.001746853001121529</v>
       </c>
       <c r="K44" t="n">
-        <v>0.00188115553541035</v>
+        <v>0.0001295174771450349</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0006748607624973916</v>
+        <v>5.014710206915898e-05</v>
       </c>
       <c r="M44" t="n">
-        <v>0.06107984655178397</v>
+        <v>0.0006548411249057628</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7333030091061977</v>
+        <v>0.903608059683937</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24534.fa</t>
+          <t>even_MAG-GUT35625.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03716397626752636</v>
+        <v>0.0226985706258782</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5784929850291225</v>
+        <v>0.4793996924473993</v>
       </c>
       <c r="D45" t="n">
-        <v>0.003367754413438822</v>
+        <v>0.0008864640433851424</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07444181730774373</v>
+        <v>0.06106684864599842</v>
       </c>
       <c r="F45" t="n">
-        <v>6.028201146494981e-05</v>
+        <v>6.701275315907074e-05</v>
       </c>
       <c r="G45" t="n">
-        <v>0.259900538643425</v>
+        <v>0.4156342525232962</v>
       </c>
       <c r="H45" t="n">
-        <v>0.008360751375828663</v>
+        <v>0.002587405486570733</v>
       </c>
       <c r="I45" t="n">
-        <v>0.004230347071430898</v>
+        <v>0.0008181927348436927</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02794408412676455</v>
+        <v>0.01471448608473559</v>
       </c>
       <c r="K45" t="n">
-        <v>0.003694155844573181</v>
+        <v>0.0006120893917080726</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0005640489427399827</v>
+        <v>0.0002673107375790888</v>
       </c>
       <c r="M45" t="n">
-        <v>0.001779258965941336</v>
+        <v>0.001247674525446428</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5784929850291225</v>
+        <v>0.4793996924473993</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2983,47 +2983,47 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27018.fa</t>
+          <t>even_MAG-GUT35760.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.03600164672109385</v>
+        <v>0.01832771702061785</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0003128767187919734</v>
+        <v>3.694851851082307e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8829603357144467</v>
+        <v>0.930174892089185</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05185669966261154</v>
+        <v>0.03289709577515004</v>
       </c>
       <c r="F46" t="n">
-        <v>7.555831475864148e-05</v>
+        <v>2.287523226483018e-05</v>
       </c>
       <c r="G46" t="n">
-        <v>0.009131259362008837</v>
+        <v>0.002729977450820984</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01358818199528987</v>
+        <v>0.01072752783981464</v>
       </c>
       <c r="I46" t="n">
-        <v>0.001804234031878676</v>
+        <v>0.001909676263790919</v>
       </c>
       <c r="J46" t="n">
-        <v>0.00253356750204995</v>
+        <v>0.000238388653330043</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0001796723116140593</v>
+        <v>0.001160972959655828</v>
       </c>
       <c r="L46" t="n">
-        <v>9.240395847249705e-05</v>
+        <v>5.069145133833025e-05</v>
       </c>
       <c r="M46" t="n">
-        <v>0.001463563706983651</v>
+        <v>0.00172323674552059</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8829603357144467</v>
+        <v>0.930174892089185</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3039,439 +3039,439 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27053.fa</t>
+          <t>even_MAG-GUT36139.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.03877688752504729</v>
+        <v>0.0230880795350859</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5062303513438469</v>
+        <v>8.144293182028829e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00118996592767659</v>
+        <v>0.929934300029615</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1560759665614158</v>
+        <v>0.03261768763795538</v>
       </c>
       <c r="F47" t="n">
-        <v>8.011740271702327e-05</v>
+        <v>3.078822712010287e-05</v>
       </c>
       <c r="G47" t="n">
-        <v>0.222892823990601</v>
+        <v>0.003639748466380331</v>
       </c>
       <c r="H47" t="n">
-        <v>0.01057933879629116</v>
+        <v>0.006455478046479496</v>
       </c>
       <c r="I47" t="n">
-        <v>0.002493946132103804</v>
+        <v>0.001936806550103936</v>
       </c>
       <c r="J47" t="n">
-        <v>0.004463373221258264</v>
+        <v>0.0006003272250998871</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05345204960415458</v>
+        <v>0.0009519567627840399</v>
       </c>
       <c r="L47" t="n">
-        <v>0.0003123166364952115</v>
+        <v>7.85431849746196e-05</v>
       </c>
       <c r="M47" t="n">
-        <v>0.003452862858392516</v>
+        <v>0.0005848414025811163</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5062303513438469</v>
+        <v>0.929934300029615</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27121.fa</t>
+          <t>even_MAG-GUT3630.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.08661564582570373</v>
+        <v>0.0359457324257825</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3522843245763244</v>
+        <v>0.0002067079403990226</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02331780376986815</v>
+        <v>0.7709493481425087</v>
       </c>
       <c r="E48" t="n">
-        <v>0.100569149509687</v>
+        <v>0.1070669670588972</v>
       </c>
       <c r="F48" t="n">
-        <v>0.000154971155535073</v>
+        <v>6.327104622958902e-05</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1683178224635878</v>
+        <v>0.02279478747577923</v>
       </c>
       <c r="H48" t="n">
-        <v>0.01263111650020522</v>
+        <v>0.02999207803338475</v>
       </c>
       <c r="I48" t="n">
-        <v>0.00605316243312316</v>
+        <v>0.005475075838752742</v>
       </c>
       <c r="J48" t="n">
-        <v>0.05106522780474829</v>
+        <v>0.00665945292937513</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1951021883658766</v>
+        <v>0.01149789578707768</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0007231942617945011</v>
+        <v>0.0003423917111559877</v>
       </c>
       <c r="M48" t="n">
-        <v>0.003165393333546375</v>
+        <v>0.009006291610657561</v>
       </c>
       <c r="N48" t="n">
-        <v>0.3522843245763244</v>
+        <v>0.7709493481425087</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28983.fa</t>
+          <t>even_MAG-GUT36419.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01922082892552823</v>
+        <v>0.06089440515516253</v>
       </c>
       <c r="C49" t="n">
-        <v>0.573068682230596</v>
+        <v>0.02786356739062094</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005655494674270021</v>
+        <v>0.01023033317933365</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0971899759571085</v>
+        <v>0.729866615329464</v>
       </c>
       <c r="F49" t="n">
-        <v>3.557803540388326e-05</v>
+        <v>0.0001056570604286927</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2733241119577017</v>
+        <v>0.0773381865922337</v>
       </c>
       <c r="H49" t="n">
-        <v>0.006953568599534921</v>
+        <v>0.04418300733464761</v>
       </c>
       <c r="I49" t="n">
-        <v>0.002744275073809332</v>
+        <v>0.007697956089561462</v>
       </c>
       <c r="J49" t="n">
-        <v>0.00278605566436108</v>
+        <v>0.002049092126364443</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01577392857183495</v>
+        <v>0.0008087261064764005</v>
       </c>
       <c r="L49" t="n">
-        <v>0.000607902151962897</v>
+        <v>0.0005713194199350146</v>
       </c>
       <c r="M49" t="n">
-        <v>0.002639598157888295</v>
+        <v>0.03839113421577157</v>
       </c>
       <c r="N49" t="n">
-        <v>0.573068682230596</v>
+        <v>0.729866615329464</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT29870.fa</t>
+          <t>even_MAG-GUT36577.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01569484531290254</v>
+        <v>0.02182919192210801</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003624769591846588</v>
+        <v>0.7244289201488195</v>
       </c>
       <c r="D50" t="n">
-        <v>1.032802992949262e-06</v>
+        <v>0.002265566566443172</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0005940926589751314</v>
+        <v>0.07482872197732197</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9760481309569371</v>
+        <v>5.796745012404693e-05</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0001764720119639142</v>
+        <v>0.120441831232991</v>
       </c>
       <c r="H50" t="n">
-        <v>6.20579088077265e-06</v>
+        <v>0.004228791495981235</v>
       </c>
       <c r="I50" t="n">
-        <v>0.001739952986984972</v>
+        <v>0.002040646083040212</v>
       </c>
       <c r="J50" t="n">
-        <v>1.306505168252797e-07</v>
+        <v>0.04776867689077633</v>
       </c>
       <c r="K50" t="n">
-        <v>4.699033361137101e-05</v>
+        <v>0.0003742579383575034</v>
       </c>
       <c r="L50" t="n">
-        <v>2.241936061482377e-05</v>
+        <v>0.0003563184607216847</v>
       </c>
       <c r="M50" t="n">
-        <v>0.002044957541773164</v>
+        <v>0.001379109833315348</v>
       </c>
       <c r="N50" t="n">
-        <v>0.9760481309569371</v>
+        <v>0.7244289201488195</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30099.fa</t>
+          <t>even_MAG-GUT38697.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.05857529477732484</v>
+        <v>0.09341019585353395</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4313594626975648</v>
+        <v>0.2605327801305671</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01297288074876047</v>
+        <v>0.01266280582541481</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1371297650108728</v>
+        <v>0.2394821069334193</v>
       </c>
       <c r="F51" t="n">
-        <v>9.310760103271835e-05</v>
+        <v>0.000262817525062591</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3270095433944824</v>
+        <v>0.2901140793993851</v>
       </c>
       <c r="H51" t="n">
-        <v>0.003961505540770141</v>
+        <v>0.008640906269398679</v>
       </c>
       <c r="I51" t="n">
-        <v>0.003620133776908092</v>
+        <v>0.00645836186251451</v>
       </c>
       <c r="J51" t="n">
-        <v>0.001461236067005278</v>
+        <v>0.01774705736084159</v>
       </c>
       <c r="K51" t="n">
-        <v>0.02206140685956741</v>
+        <v>0.05941891229087348</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0003155050959316355</v>
+        <v>0.000687174534478466</v>
       </c>
       <c r="M51" t="n">
-        <v>0.001440158429779292</v>
+        <v>0.01058280201451044</v>
       </c>
       <c r="N51" t="n">
-        <v>0.4313594626975648</v>
+        <v>0.2901140793993851</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp003451515(reject)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31741.fa</t>
+          <t>even_MAG-GUT39017.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02300494294047263</v>
+        <v>0.08160147489800708</v>
       </c>
       <c r="C52" t="n">
-        <v>2.154824983289769e-05</v>
+        <v>0.3949227373088482</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9300542678865383</v>
+        <v>0.009497778170256302</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01218822861754233</v>
+        <v>0.2077449262590378</v>
       </c>
       <c r="F52" t="n">
-        <v>2.461197180929599e-05</v>
+        <v>0.0002079837522914022</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0009972817832666636</v>
+        <v>0.2572561275463195</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02372825816570221</v>
+        <v>0.008122686690925749</v>
       </c>
       <c r="I52" t="n">
-        <v>0.006299611428575447</v>
+        <v>0.003796821137544932</v>
       </c>
       <c r="J52" t="n">
-        <v>0.002285280008168138</v>
+        <v>0.006359623029042863</v>
       </c>
       <c r="K52" t="n">
-        <v>2.384348227766671e-05</v>
+        <v>0.02416592287596624</v>
       </c>
       <c r="L52" t="n">
-        <v>8.323055877767899e-05</v>
+        <v>0.0003904474118770639</v>
       </c>
       <c r="M52" t="n">
-        <v>0.001288894907036668</v>
+        <v>0.005933470919882899</v>
       </c>
       <c r="N52" t="n">
-        <v>0.9300542678865383</v>
+        <v>0.3949227373088482</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32018.fa</t>
+          <t>even_MAG-GUT39589.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1158434163202078</v>
+        <v>0.04414653268027697</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04813206060191447</v>
+        <v>0.7141646943373514</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04349339040576932</v>
+        <v>0.0081540982522146</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6953649070092118</v>
+        <v>0.0608037534213665</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0002592509825459691</v>
+        <v>6.238160179434532e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05117204959020954</v>
+        <v>0.1163662255574015</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01231967969219611</v>
+        <v>0.01204918139406184</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00614765740416906</v>
+        <v>0.004589222607385312</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002884927910161675</v>
+        <v>0.03490071277611118</v>
       </c>
       <c r="K53" t="n">
-        <v>0.005018967923495593</v>
+        <v>0.002006629771169844</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0004759203445773349</v>
+        <v>0.0009670747519150569</v>
       </c>
       <c r="M53" t="n">
-        <v>0.01888777181554116</v>
+        <v>0.001789492848951417</v>
       </c>
       <c r="N53" t="n">
-        <v>0.6953649070092118</v>
+        <v>0.7141646943373514</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32053.fa</t>
+          <t>even_MAG-GUT40706.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02866603682411571</v>
+        <v>0.02738806705628891</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5912389206346719</v>
+        <v>0.6889372091098728</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00289882635148524</v>
+        <v>0.003574738328940632</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06025164962433329</v>
+        <v>0.1364647746148892</v>
       </c>
       <c r="F54" t="n">
-        <v>5.610088521481384e-05</v>
+        <v>5.393072011142269e-05</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2872003317969677</v>
+        <v>0.09695647513087553</v>
       </c>
       <c r="H54" t="n">
-        <v>0.005294579326795273</v>
+        <v>0.007679021437918683</v>
       </c>
       <c r="I54" t="n">
-        <v>0.001797077370492521</v>
+        <v>0.002971352877199923</v>
       </c>
       <c r="J54" t="n">
-        <v>0.01669044466317547</v>
+        <v>0.02613078355106349</v>
       </c>
       <c r="K54" t="n">
-        <v>0.003824125903076752</v>
+        <v>0.007178342058924394</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0003101855657143488</v>
+        <v>0.000714808861434382</v>
       </c>
       <c r="M54" t="n">
-        <v>0.001771721053957079</v>
+        <v>0.001950496252480861</v>
       </c>
       <c r="N54" t="n">
-        <v>0.5912389206346719</v>
+        <v>0.6889372091098728</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3480,166 +3480,166 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32130.fa</t>
+          <t>even_MAG-GUT42468.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.08749204852187947</v>
+        <v>0.009623023107003244</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002348104931161992</v>
+        <v>0.4467087780457978</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03387950463702342</v>
+        <v>0.0006324580910842534</v>
       </c>
       <c r="E55" t="n">
-        <v>0.02713802290850072</v>
+        <v>0.05147321543467238</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00576296545466598</v>
+        <v>1.856709054048365e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0001789446220598405</v>
+        <v>0.3888692252090433</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01189688686584674</v>
+        <v>0.001667250780091547</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7774365849988217</v>
+        <v>0.001624901020767102</v>
       </c>
       <c r="J55" t="n">
-        <v>0.002843513235945921</v>
+        <v>0.001117806235346563</v>
       </c>
       <c r="K55" t="n">
-        <v>3.256089694202499e-05</v>
+        <v>0.09723586906330955</v>
       </c>
       <c r="L55" t="n">
-        <v>0.002287413517060435</v>
+        <v>0.0001494606622976943</v>
       </c>
       <c r="M55" t="n">
-        <v>0.04870344941009165</v>
+        <v>0.0008794452600459123</v>
       </c>
       <c r="N55" t="n">
-        <v>0.7774365849988217</v>
+        <v>0.4467087780457978</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp900316325</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp900316325</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32383.fa</t>
+          <t>even_MAG-GUT45009.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02364142762004175</v>
+        <v>0.04257264944848681</v>
       </c>
       <c r="C56" t="n">
-        <v>7.121421462454506e-05</v>
+        <v>0.481032473203276</v>
       </c>
       <c r="D56" t="n">
-        <v>0.903608059683937</v>
+        <v>0.004883402736695272</v>
       </c>
       <c r="E56" t="n">
-        <v>0.05655626619610218</v>
+        <v>0.1585897126971601</v>
       </c>
       <c r="F56" t="n">
-        <v>6.42433707110605e-05</v>
+        <v>8.659731609245623e-05</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008544472758906756</v>
+        <v>0.2132125513230811</v>
       </c>
       <c r="H56" t="n">
-        <v>0.003863430005545351</v>
+        <v>0.005695433366888684</v>
       </c>
       <c r="I56" t="n">
-        <v>0.001069527444889859</v>
+        <v>0.002366123638462912</v>
       </c>
       <c r="J56" t="n">
-        <v>0.001746853001121529</v>
+        <v>0.002962567367982742</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0001295174771450349</v>
+        <v>0.0851193533572242</v>
       </c>
       <c r="L56" t="n">
-        <v>5.014710206915898e-05</v>
+        <v>0.0004797761570963249</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0006548411249057628</v>
+        <v>0.00299935938755329</v>
       </c>
       <c r="N56" t="n">
-        <v>0.903608059683937</v>
+        <v>0.481032473203276</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35625.fa</t>
+          <t>even_MAG-GUT45172.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0226985706258782</v>
+        <v>0.02113003338043115</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4793996924473993</v>
+        <v>0.6930919992143928</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0008864640433851424</v>
+        <v>0.00204021695156072</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06106684864599842</v>
+        <v>0.1102211485398881</v>
       </c>
       <c r="F57" t="n">
-        <v>6.701275315907074e-05</v>
+        <v>3.405287522706632e-05</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4156342525232962</v>
+        <v>0.1398168502386964</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002587405486570733</v>
+        <v>0.006051887738187932</v>
       </c>
       <c r="I57" t="n">
-        <v>0.0008181927348436927</v>
+        <v>0.003152169001586482</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01471448608473559</v>
+        <v>0.02139769773715841</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0006120893917080726</v>
+        <v>0.0006589313308771764</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0002673107375790888</v>
+        <v>0.000592318487550789</v>
       </c>
       <c r="M57" t="n">
-        <v>0.001247674525446428</v>
+        <v>0.001812694504443015</v>
       </c>
       <c r="N57" t="n">
-        <v>0.4793996924473993</v>
+        <v>0.6930919992143928</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3648,782 +3648,782 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35626.fa</t>
+          <t>even_MAG-GUT45417.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.03574646062738605</v>
+        <v>0.1497897858241552</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001030812863583414</v>
+        <v>0.04098343852019789</v>
       </c>
       <c r="D58" t="n">
-        <v>1.105155146983132e-05</v>
+        <v>0.01301798262563419</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001975397033236263</v>
+        <v>0.6261998793223998</v>
       </c>
       <c r="F58" t="n">
-        <v>0.945043913156579</v>
+        <v>0.0003267617541525819</v>
       </c>
       <c r="G58" t="n">
-        <v>6.267398146580876e-05</v>
+        <v>0.0593542862273299</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0006231089418045502</v>
+        <v>0.02978526035337147</v>
       </c>
       <c r="I58" t="n">
-        <v>0.01391719530781283</v>
+        <v>0.01166419420114512</v>
       </c>
       <c r="J58" t="n">
-        <v>1.308878800190208e-05</v>
+        <v>0.006730780886758179</v>
       </c>
       <c r="K58" t="n">
-        <v>2.366394059471834e-05</v>
+        <v>0.0009041150498460201</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0002872441214751909</v>
+        <v>0.0006160091413831984</v>
       </c>
       <c r="M58" t="n">
-        <v>0.001265389686590305</v>
+        <v>0.06062750609362624</v>
       </c>
       <c r="N58" t="n">
-        <v>0.945043913156579</v>
+        <v>0.6261998793223998</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35760.fa</t>
+          <t>even_MAG-GUT45814.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01832771702061785</v>
+        <v>0.08250157380688118</v>
       </c>
       <c r="C59" t="n">
-        <v>3.694851851082307e-05</v>
+        <v>0.1661272166424728</v>
       </c>
       <c r="D59" t="n">
-        <v>0.930174892089185</v>
+        <v>0.01300697207469604</v>
       </c>
       <c r="E59" t="n">
-        <v>0.03289709577515004</v>
+        <v>0.2404285216655743</v>
       </c>
       <c r="F59" t="n">
-        <v>2.287523226483018e-05</v>
+        <v>0.0008743190463318251</v>
       </c>
       <c r="G59" t="n">
-        <v>0.002729977450820984</v>
+        <v>0.3419268326626375</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01072752783981464</v>
+        <v>0.008365803075092682</v>
       </c>
       <c r="I59" t="n">
-        <v>0.001909676263790919</v>
+        <v>0.003031757083101052</v>
       </c>
       <c r="J59" t="n">
-        <v>0.000238388653330043</v>
+        <v>0.04884874040519237</v>
       </c>
       <c r="K59" t="n">
-        <v>0.001160972959655828</v>
+        <v>0.08692202167576694</v>
       </c>
       <c r="L59" t="n">
-        <v>5.069145133833025e-05</v>
+        <v>0.0003969635923655083</v>
       </c>
       <c r="M59" t="n">
-        <v>0.00172323674552059</v>
+        <v>0.007569278269887711</v>
       </c>
       <c r="N59" t="n">
-        <v>0.930174892089185</v>
+        <v>0.3419268326626375</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36139.fa</t>
+          <t>even_MAG-GUT46540.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0230880795350859</v>
+        <v>0.1015591817075605</v>
       </c>
       <c r="C60" t="n">
-        <v>8.144293182028829e-05</v>
+        <v>0.008772963149681989</v>
       </c>
       <c r="D60" t="n">
-        <v>0.929934300029615</v>
+        <v>0.05451655215787893</v>
       </c>
       <c r="E60" t="n">
-        <v>0.03261768763795538</v>
+        <v>0.6714504612291183</v>
       </c>
       <c r="F60" t="n">
-        <v>3.078822712010287e-05</v>
+        <v>0.0002095999326235955</v>
       </c>
       <c r="G60" t="n">
-        <v>0.003639748466380331</v>
+        <v>0.01415446333267056</v>
       </c>
       <c r="H60" t="n">
-        <v>0.006455478046479496</v>
+        <v>0.06629809842090539</v>
       </c>
       <c r="I60" t="n">
-        <v>0.001936806550103936</v>
+        <v>0.009172388163940169</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0006003272250998871</v>
+        <v>0.01320527740185565</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0009519567627840399</v>
+        <v>0.0007262068735795393</v>
       </c>
       <c r="L60" t="n">
-        <v>7.85431849746196e-05</v>
+        <v>0.0003573113601222375</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0005848414025811163</v>
+        <v>0.05957749627006329</v>
       </c>
       <c r="N60" t="n">
-        <v>0.929934300029615</v>
+        <v>0.6714504612291183</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3624.fa</t>
+          <t>even_MAG-GUT46914.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01971594077041549</v>
+        <v>0.05446594004081327</v>
       </c>
       <c r="C61" t="n">
-        <v>0.00733661520977865</v>
+        <v>0.288465497786867</v>
       </c>
       <c r="D61" t="n">
-        <v>1.830452115076783e-06</v>
+        <v>0.01438038736975356</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0007277341709271457</v>
+        <v>0.09711047785681383</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9665059856520798</v>
+        <v>0.0001464808578018835</v>
       </c>
       <c r="G61" t="n">
-        <v>5.104958060112807e-05</v>
+        <v>0.3339202578983506</v>
       </c>
       <c r="H61" t="n">
-        <v>1.365344976655388e-05</v>
+        <v>0.02423999720707332</v>
       </c>
       <c r="I61" t="n">
-        <v>0.003468510818655433</v>
+        <v>0.004102877717262041</v>
       </c>
       <c r="J61" t="n">
-        <v>4.623225614561814e-07</v>
+        <v>0.02281750253512784</v>
       </c>
       <c r="K61" t="n">
-        <v>7.597187145660616e-05</v>
+        <v>0.1562031901302956</v>
       </c>
       <c r="L61" t="n">
-        <v>3.562134268897761e-05</v>
+        <v>0.001003303074886896</v>
       </c>
       <c r="M61" t="n">
-        <v>0.002066624358953846</v>
+        <v>0.003144087524954087</v>
       </c>
       <c r="N61" t="n">
-        <v>0.9665059856520798</v>
+        <v>0.3339202578983506</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp003451515(reject)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3630.fa</t>
+          <t>even_MAG-GUT47256.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0359457324257825</v>
+        <v>0.01783785287378326</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0002067079403990226</v>
+        <v>0.7041951303980737</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7709493481425087</v>
+        <v>0.001067737035792868</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1070669670588972</v>
+        <v>0.05935404445652166</v>
       </c>
       <c r="F62" t="n">
-        <v>6.327104622958902e-05</v>
+        <v>6.074877142615001e-05</v>
       </c>
       <c r="G62" t="n">
-        <v>0.02279478747577923</v>
+        <v>0.1947318804883205</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02999207803338475</v>
+        <v>0.002199481264818211</v>
       </c>
       <c r="I62" t="n">
-        <v>0.005475075838752742</v>
+        <v>0.0008855975056990716</v>
       </c>
       <c r="J62" t="n">
-        <v>0.00665945292937513</v>
+        <v>0.0145096406533673</v>
       </c>
       <c r="K62" t="n">
-        <v>0.01149789578707768</v>
+        <v>0.00426889714774143</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0003423917111559877</v>
+        <v>0.0001571422731569988</v>
       </c>
       <c r="M62" t="n">
-        <v>0.009006291610657561</v>
+        <v>0.0007318471312989321</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7709493481425087</v>
+        <v>0.7041951303980737</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436475</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36419.fa</t>
+          <t>even_MAG-GUT50240.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.06089440515516253</v>
+        <v>0.01599720601204848</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02786356739062094</v>
+        <v>7.852396842968628e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01023033317933365</v>
+        <v>0.8959473892299351</v>
       </c>
       <c r="E63" t="n">
-        <v>0.729866615329464</v>
+        <v>0.04096541717002832</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0001056570604286927</v>
+        <v>4.303117541820059e-05</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0773381865922337</v>
+        <v>0.02720151330183064</v>
       </c>
       <c r="H63" t="n">
-        <v>0.04418300733464761</v>
+        <v>0.009353426717084171</v>
       </c>
       <c r="I63" t="n">
-        <v>0.007697956089561462</v>
+        <v>0.001259150512193467</v>
       </c>
       <c r="J63" t="n">
-        <v>0.002049092126364443</v>
+        <v>0.0002570276295130767</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0008087261064764005</v>
+        <v>0.008153786792172131</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0005713194199350146</v>
+        <v>3.466214546541563e-05</v>
       </c>
       <c r="M63" t="n">
-        <v>0.03839113421577157</v>
+        <v>0.0007088653458812464</v>
       </c>
       <c r="N63" t="n">
-        <v>0.729866615329464</v>
+        <v>0.8959473892299351</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36577.fa</t>
+          <t>even_MAG-GUT5168.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02182919192210801</v>
+        <v>0.08829864414106911</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7244289201488195</v>
+        <v>0.002273133292666193</v>
       </c>
       <c r="D64" t="n">
-        <v>0.002265566566443172</v>
+        <v>0.01143682701965908</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07482872197732197</v>
+        <v>0.01305955608717805</v>
       </c>
       <c r="F64" t="n">
-        <v>5.796745012404693e-05</v>
+        <v>0.003568551753300057</v>
       </c>
       <c r="G64" t="n">
-        <v>0.120441831232991</v>
+        <v>7.214073914671872e-05</v>
       </c>
       <c r="H64" t="n">
-        <v>0.004228791495981235</v>
+        <v>0.06923637475040979</v>
       </c>
       <c r="I64" t="n">
-        <v>0.002040646083040212</v>
+        <v>0.7910813050801169</v>
       </c>
       <c r="J64" t="n">
-        <v>0.04776867689077633</v>
+        <v>0.003557067692936533</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0003742579383575034</v>
+        <v>5.881883835847481e-05</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0003563184607216847</v>
+        <v>0.002078488016282356</v>
       </c>
       <c r="M64" t="n">
-        <v>0.001379109833315348</v>
+        <v>0.01527909258887674</v>
       </c>
       <c r="N64" t="n">
-        <v>0.7244289201488195</v>
+        <v>0.7910813050801169</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp900316325</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp900316325</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3674.fa</t>
+          <t>even_MAG-GUT52995.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.03061541332785266</v>
+        <v>0.06971150521867041</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000982763533394624</v>
+        <v>0.4641593691520142</v>
       </c>
       <c r="D65" t="n">
-        <v>7.904622039339938e-06</v>
+        <v>0.01846394553340028</v>
       </c>
       <c r="E65" t="n">
-        <v>0.001544718119761362</v>
+        <v>0.1343400194951616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9534670128076206</v>
+        <v>0.0002371212246838232</v>
       </c>
       <c r="G65" t="n">
-        <v>7.138977826856771e-05</v>
+        <v>0.2564530913961841</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0004405944440363174</v>
+        <v>0.01033613616450982</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01218273067935329</v>
+        <v>0.003225176718595923</v>
       </c>
       <c r="J65" t="n">
-        <v>8.527213360856906e-06</v>
+        <v>0.03442782832725847</v>
       </c>
       <c r="K65" t="n">
-        <v>2.029746957209688e-05</v>
+        <v>0.003231953852022045</v>
       </c>
       <c r="L65" t="n">
-        <v>0.0002203373244891193</v>
+        <v>0.0003710170052071717</v>
       </c>
       <c r="M65" t="n">
-        <v>0.0004383106802511378</v>
+        <v>0.005042835912291885</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9534670128076206</v>
+        <v>0.4641593691520142</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36922.fa</t>
+          <t>even_MAG-GUT53015.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02214372002067853</v>
+        <v>0.0802268074609926</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00165856182829907</v>
+        <v>0.225971243946628</v>
       </c>
       <c r="D66" t="n">
-        <v>2.252869551487448e-06</v>
+        <v>0.01513021903660206</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0007621015249622418</v>
+        <v>0.2326504400305516</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9678225585225507</v>
+        <v>0.0002452583930279561</v>
       </c>
       <c r="G66" t="n">
-        <v>3.812380287400367e-05</v>
+        <v>0.3359644105939978</v>
       </c>
       <c r="H66" t="n">
-        <v>5.108380434546646e-05</v>
+        <v>0.03824429947123615</v>
       </c>
       <c r="I66" t="n">
-        <v>0.006583901595151303</v>
+        <v>0.005975592205645926</v>
       </c>
       <c r="J66" t="n">
-        <v>1.099411998993805e-06</v>
+        <v>0.04349095152230989</v>
       </c>
       <c r="K66" t="n">
-        <v>1.503659823453027e-05</v>
+        <v>0.01378058082414166</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0001037505572667478</v>
+        <v>0.0008162838095275132</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0008178094640869015</v>
+        <v>0.007503912705338736</v>
       </c>
       <c r="N66" t="n">
-        <v>0.9678225585225507</v>
+        <v>0.3359644105939978</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp003451515(reject)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37063.fa</t>
+          <t>even_MAG-GUT53019.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01985639379955594</v>
+        <v>0.02903664426007136</v>
       </c>
       <c r="C67" t="n">
-        <v>0.005297886357540989</v>
+        <v>0.556815258958519</v>
       </c>
       <c r="D67" t="n">
-        <v>4.094785619807132e-06</v>
+        <v>0.02613747636163393</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001574806155268866</v>
+        <v>0.03216183014271388</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9644295940283863</v>
+        <v>2.810913779270856e-05</v>
       </c>
       <c r="G67" t="n">
-        <v>1.608462842170709e-05</v>
+        <v>0.09277062561908533</v>
       </c>
       <c r="H67" t="n">
-        <v>7.847284682128204e-06</v>
+        <v>0.004541334167221552</v>
       </c>
       <c r="I67" t="n">
-        <v>0.007037318748811579</v>
+        <v>0.007947943376283193</v>
       </c>
       <c r="J67" t="n">
-        <v>4.136143301941329e-07</v>
+        <v>0.004465576584481199</v>
       </c>
       <c r="K67" t="n">
-        <v>4.348801315958934e-05</v>
+        <v>0.2420757978334466</v>
       </c>
       <c r="L67" t="n">
-        <v>3.19402399474247e-05</v>
+        <v>0.001056465355568737</v>
       </c>
       <c r="M67" t="n">
-        <v>0.001700132344275409</v>
+        <v>0.002962938203182301</v>
       </c>
       <c r="N67" t="n">
-        <v>0.9644295940283863</v>
+        <v>0.556815258958519</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37384.fa</t>
+          <t>even_MAG-GUT53033.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02250058691217006</v>
+        <v>0.0283572372791011</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0007660366391834181</v>
+        <v>0.6985497164129605</v>
       </c>
       <c r="D68" t="n">
-        <v>5.846341956018923e-06</v>
+        <v>0.00534689204035051</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0009998208824195597</v>
+        <v>0.06625287360085022</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9683938653387324</v>
+        <v>8.195027346678146e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>6.572935754353575e-05</v>
+        <v>0.1600531229805145</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0001024264882240704</v>
+        <v>0.002634352941755148</v>
       </c>
       <c r="I68" t="n">
-        <v>0.006092343109860847</v>
+        <v>0.001259404056931487</v>
       </c>
       <c r="J68" t="n">
-        <v>2.621920811827759e-06</v>
+        <v>0.02798115992594128</v>
       </c>
       <c r="K68" t="n">
-        <v>1.281532261082152e-05</v>
+        <v>0.008280106574930307</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0001066865639429512</v>
+        <v>0.00022739745824918</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0009512211225445453</v>
+        <v>0.0009757864549488714</v>
       </c>
       <c r="N68" t="n">
-        <v>0.9683938653387324</v>
+        <v>0.6985497164129605</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3747.fa</t>
+          <t>even_MAG-GUT59273.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02086155465001367</v>
+        <v>0.02622533460329419</v>
       </c>
       <c r="C69" t="n">
-        <v>0.000748032866493694</v>
+        <v>0.6287586822209318</v>
       </c>
       <c r="D69" t="n">
-        <v>5.599175166307017e-06</v>
+        <v>0.001131896877664495</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001070790568939484</v>
+        <v>0.1155223020268979</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9656526027667669</v>
+        <v>7.772717518614601e-05</v>
       </c>
       <c r="G69" t="n">
-        <v>3.680088727550464e-05</v>
+        <v>0.1311734986495348</v>
       </c>
       <c r="H69" t="n">
-        <v>6.781903835984527e-05</v>
+        <v>0.003405003200314698</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01086707942307875</v>
+        <v>0.001278251403943109</v>
       </c>
       <c r="J69" t="n">
-        <v>1.726815895096747e-06</v>
+        <v>0.08943028817853252</v>
       </c>
       <c r="K69" t="n">
-        <v>1.006474668429579e-05</v>
+        <v>0.001462930272745453</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0001077454039632203</v>
+        <v>0.0003053773346088911</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0005701836573634843</v>
+        <v>0.001228708056346252</v>
       </c>
       <c r="N69" t="n">
-        <v>0.9656526027667669</v>
+        <v>0.6287586822209318</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38182.fa</t>
+          <t>even_MAG-GUT59827.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02321864427608799</v>
+        <v>0.02679501733864982</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001013786203349616</v>
+        <v>0.6840065165588441</v>
       </c>
       <c r="D70" t="n">
-        <v>3.44851431189794e-06</v>
+        <v>0.004161883107374789</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001330677555597897</v>
+        <v>0.1160845391073965</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9646994848721362</v>
+        <v>5.939259968979006e-05</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0001067922144788925</v>
+        <v>0.1247451986512008</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0001321357403574465</v>
+        <v>0.00745355298461551</v>
       </c>
       <c r="I70" t="n">
-        <v>0.008703097644729041</v>
+        <v>0.002102372785000977</v>
       </c>
       <c r="J70" t="n">
-        <v>2.598999271245117e-06</v>
+        <v>0.0321644353474425</v>
       </c>
       <c r="K70" t="n">
-        <v>2.486892585699726e-05</v>
+        <v>0.0002168722542720436</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0001281708592459867</v>
+        <v>0.0007385473104034395</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0006362941945768322</v>
+        <v>0.00147167195510962</v>
       </c>
       <c r="N70" t="n">
-        <v>0.9646994848721362</v>
+        <v>0.6840065165588441</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT38697.fa</t>
+          <t>even_MAG-GUT66011.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.09341019585353395</v>
+        <v>0.07266866360208218</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2605327801305671</v>
+        <v>0.1633682290671593</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01266280582541481</v>
+        <v>0.1288901692231886</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2394821069334193</v>
+        <v>0.1392526263330258</v>
       </c>
       <c r="F71" t="n">
-        <v>0.000262817525062591</v>
+        <v>0.0001287781736823842</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2901140793993851</v>
+        <v>0.2981861936587717</v>
       </c>
       <c r="H71" t="n">
-        <v>0.008640906269398679</v>
+        <v>0.04356380215443317</v>
       </c>
       <c r="I71" t="n">
-        <v>0.00645836186251451</v>
+        <v>0.01277103445979986</v>
       </c>
       <c r="J71" t="n">
-        <v>0.01774705736084159</v>
+        <v>0.07191918991390235</v>
       </c>
       <c r="K71" t="n">
-        <v>0.05941891229087348</v>
+        <v>0.05589793413668519</v>
       </c>
       <c r="L71" t="n">
-        <v>0.000687174534478466</v>
+        <v>0.004798465848188953</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01058280201451044</v>
+        <v>0.00855491342908039</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2901140793993851</v>
+        <v>0.2981861936587717</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4439,47 +4439,47 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39017.fa</t>
+          <t>even_MAG-GUT66278.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08160147489800708</v>
+        <v>0.03755009653815069</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3949227373088482</v>
+        <v>0.5489243651969303</v>
       </c>
       <c r="D72" t="n">
-        <v>0.009497778170256302</v>
+        <v>0.002353319423185515</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2077449262590378</v>
+        <v>0.09638788737209861</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0002079837522914022</v>
+        <v>6.547185018175235e-05</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2572561275463195</v>
+        <v>0.2867068410432762</v>
       </c>
       <c r="H72" t="n">
-        <v>0.008122686690925749</v>
+        <v>0.006295803990989767</v>
       </c>
       <c r="I72" t="n">
-        <v>0.003796821137544932</v>
+        <v>0.002865975598618884</v>
       </c>
       <c r="J72" t="n">
-        <v>0.006359623029042863</v>
+        <v>0.009458351106464638</v>
       </c>
       <c r="K72" t="n">
-        <v>0.02416592287596624</v>
+        <v>0.00465307544347528</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0003904474118770639</v>
+        <v>0.0005204831398661433</v>
       </c>
       <c r="M72" t="n">
-        <v>0.005933470919882899</v>
+        <v>0.004218329296762254</v>
       </c>
       <c r="N72" t="n">
-        <v>0.3949227373088482</v>
+        <v>0.5489243651969303</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4495,47 +4495,47 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT39589.fa</t>
+          <t>even_MAG-GUT66288.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.04414653268027697</v>
+        <v>0.05077091583147211</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7141646943373514</v>
+        <v>0.3756208863817079</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0081540982522146</v>
+        <v>0.0321448054657707</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0608037534213665</v>
+        <v>0.1058434871265143</v>
       </c>
       <c r="F73" t="n">
-        <v>6.238160179434532e-05</v>
+        <v>0.0001037978341246952</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1163662255574015</v>
+        <v>0.2541039011414524</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01204918139406184</v>
+        <v>0.01572882613263111</v>
       </c>
       <c r="I73" t="n">
-        <v>0.004589222607385312</v>
+        <v>0.007334375251555899</v>
       </c>
       <c r="J73" t="n">
-        <v>0.03490071277611118</v>
+        <v>0.03549081150520444</v>
       </c>
       <c r="K73" t="n">
-        <v>0.002006629771169844</v>
+        <v>0.1204167661284078</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0009670747519150569</v>
+        <v>0.0009976552364877821</v>
       </c>
       <c r="M73" t="n">
-        <v>0.001789492848951417</v>
+        <v>0.001443771964670956</v>
       </c>
       <c r="N73" t="n">
-        <v>0.7141646943373514</v>
+        <v>0.3756208863817079</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4544,54 +4544,54 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40706.fa</t>
+          <t>even_MAG-GUT66335.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02738806705628891</v>
+        <v>0.03240343479206747</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6889372091098728</v>
+        <v>0.4819944510350365</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003574738328940632</v>
+        <v>0.001680159652128126</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1364647746148892</v>
+        <v>0.1624276967056381</v>
       </c>
       <c r="F74" t="n">
-        <v>5.393072011142269e-05</v>
+        <v>9.458171242013053e-05</v>
       </c>
       <c r="G74" t="n">
-        <v>0.09695647513087553</v>
+        <v>0.1538856537637706</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007679021437918683</v>
+        <v>0.002739032165882554</v>
       </c>
       <c r="I74" t="n">
-        <v>0.002971352877199923</v>
+        <v>0.001975647377794718</v>
       </c>
       <c r="J74" t="n">
-        <v>0.02613078355106349</v>
+        <v>0.05309866795237513</v>
       </c>
       <c r="K74" t="n">
-        <v>0.007178342058924394</v>
+        <v>0.1061668233056612</v>
       </c>
       <c r="L74" t="n">
-        <v>0.000714808861434382</v>
+        <v>0.0003570011602904853</v>
       </c>
       <c r="M74" t="n">
-        <v>0.001950496252480861</v>
+        <v>0.00317685037693499</v>
       </c>
       <c r="N74" t="n">
-        <v>0.6889372091098728</v>
+        <v>0.4819944510350365</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4600,110 +4600,110 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42468.fa</t>
+          <t>even_MAG-GUT68269.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.009623023107003244</v>
+        <v>0.05259344381063705</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4467087780457978</v>
+        <v>0.1873007764404059</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0006324580910842534</v>
+        <v>0.00321455814485217</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05147321543467238</v>
+        <v>0.2184516491188211</v>
       </c>
       <c r="F75" t="n">
-        <v>1.856709054048365e-05</v>
+        <v>0.0001957457965723601</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3888692252090433</v>
+        <v>0.3966791090334176</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001667250780091547</v>
+        <v>0.0109706310138481</v>
       </c>
       <c r="I75" t="n">
-        <v>0.001624901020767102</v>
+        <v>0.003877470985056614</v>
       </c>
       <c r="J75" t="n">
-        <v>0.001117806235346563</v>
+        <v>0.02013555231308184</v>
       </c>
       <c r="K75" t="n">
-        <v>0.09723586906330955</v>
+        <v>0.09589666198433469</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0001494606622976943</v>
+        <v>0.0004535892270390314</v>
       </c>
       <c r="M75" t="n">
-        <v>0.0008794452600459123</v>
+        <v>0.01023081213193326</v>
       </c>
       <c r="N75" t="n">
-        <v>0.4467087780457978</v>
+        <v>0.3966791090334176</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira sp003451515</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43366.fa</t>
+          <t>even_MAG-GUT69432.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0558179634989471</v>
+        <v>0.05024382401685207</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0766780432933086</v>
+        <v>0.1611515983947335</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02353537175125118</v>
+        <v>0.002256761321744579</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1671761203940957</v>
+        <v>0.1452630464776359</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0001587769461099796</v>
+        <v>0.0001962748747872846</v>
       </c>
       <c r="G76" t="n">
-        <v>0.341595084654286</v>
+        <v>0.5532313156777293</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07100787549817864</v>
+        <v>0.01076958491253553</v>
       </c>
       <c r="I76" t="n">
-        <v>0.01685590578360213</v>
+        <v>0.002784339812248025</v>
       </c>
       <c r="J76" t="n">
-        <v>0.06240942892154018</v>
+        <v>0.01214679931041624</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1589648907448578</v>
+        <v>0.05576236900807532</v>
       </c>
       <c r="L76" t="n">
-        <v>0.003648651231724824</v>
+        <v>0.0002007041192187564</v>
       </c>
       <c r="M76" t="n">
-        <v>0.02215188728209783</v>
+        <v>0.005993382074023355</v>
       </c>
       <c r="N76" t="n">
-        <v>0.341595084654286</v>
+        <v>0.5532313156777293</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4719,159 +4719,159 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43797.fa</t>
+          <t>even_MAG-GUT71840.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01407981442428788</v>
+        <v>0.02100842581175838</v>
       </c>
       <c r="C77" t="n">
-        <v>0.001463651358628666</v>
+        <v>0.6290523545400437</v>
       </c>
       <c r="D77" t="n">
-        <v>1.258051046088315e-06</v>
+        <v>0.001969039482279636</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0004735772179446415</v>
+        <v>0.1279265668663911</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9806116228374633</v>
+        <v>4.801484776390756e-05</v>
       </c>
       <c r="G77" t="n">
-        <v>7.305778401889712e-05</v>
+        <v>0.1965169669566664</v>
       </c>
       <c r="H77" t="n">
-        <v>6.379130595335693e-06</v>
+        <v>0.004657968317546103</v>
       </c>
       <c r="I77" t="n">
-        <v>0.002918787684583635</v>
+        <v>0.001727271237304545</v>
       </c>
       <c r="J77" t="n">
-        <v>2.127255051492609e-07</v>
+        <v>0.007626903976623241</v>
       </c>
       <c r="K77" t="n">
-        <v>3.870929998355e-05</v>
+        <v>0.00704065418424615</v>
       </c>
       <c r="L77" t="n">
-        <v>4.397707392712996e-05</v>
+        <v>0.0005808917631006181</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0002889524120157703</v>
+        <v>0.00184494201627648</v>
       </c>
       <c r="N77" t="n">
-        <v>0.9806116228374633</v>
+        <v>0.6290523545400437</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44374.fa</t>
+          <t>even_MAG-GUT73968.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0205357311555863</v>
+        <v>0.1085571276817549</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01302928722783998</v>
+        <v>0.0176366238022486</v>
       </c>
       <c r="D78" t="n">
-        <v>2.233993947273079e-06</v>
+        <v>0.1340600182312572</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0006042009372444779</v>
+        <v>0.5984057047450824</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9617763206292866</v>
+        <v>0.0003979917585517954</v>
       </c>
       <c r="G78" t="n">
-        <v>0.000179631066014078</v>
+        <v>0.05298133748849828</v>
       </c>
       <c r="H78" t="n">
-        <v>3.446691657805761e-05</v>
+        <v>0.01198287151318635</v>
       </c>
       <c r="I78" t="n">
-        <v>0.00211830150807935</v>
+        <v>0.008311230479471717</v>
       </c>
       <c r="J78" t="n">
-        <v>1.484727626510428e-06</v>
+        <v>0.04566674149141912</v>
       </c>
       <c r="K78" t="n">
-        <v>0.000177927798465147</v>
+        <v>0.002328017469393006</v>
       </c>
       <c r="L78" t="n">
-        <v>3.80590385785802e-05</v>
+        <v>0.000565216710225873</v>
       </c>
       <c r="M78" t="n">
-        <v>0.001502355000753658</v>
+        <v>0.019107118628911</v>
       </c>
       <c r="N78" t="n">
-        <v>0.9617763206292866</v>
+        <v>0.5984057047450824</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000437735</t>
+          <t>s__Lachnospira sp000436535</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45009.fa</t>
+          <t>even_MAG-GUT74997.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.04257264944848681</v>
+        <v>0.02924303097393512</v>
       </c>
       <c r="C79" t="n">
-        <v>0.481032473203276</v>
+        <v>0.6825062173759439</v>
       </c>
       <c r="D79" t="n">
-        <v>0.004883402736695272</v>
+        <v>0.003436275510924778</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1585897126971601</v>
+        <v>0.1350605222953108</v>
       </c>
       <c r="F79" t="n">
-        <v>8.659731609245623e-05</v>
+        <v>5.105610952831121e-05</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2132125513230811</v>
+        <v>0.1290914850972314</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005695433366888684</v>
+        <v>0.005606154436169594</v>
       </c>
       <c r="I79" t="n">
-        <v>0.002366123638462912</v>
+        <v>0.002439020685832888</v>
       </c>
       <c r="J79" t="n">
-        <v>0.002962567367982742</v>
+        <v>0.005578518026070309</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0851193533572242</v>
+        <v>0.005195072363490652</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0004797761570963249</v>
+        <v>0.0003808898812116441</v>
       </c>
       <c r="M79" t="n">
-        <v>0.00299935938755329</v>
+        <v>0.001411757244350855</v>
       </c>
       <c r="N79" t="n">
-        <v>0.481032473203276</v>
+        <v>0.6825062173759439</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4880,54 +4880,54 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45172.fa</t>
+          <t>even_MAG-GUT77408.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02113003338043115</v>
+        <v>0.01847881372633627</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6930919992143928</v>
+        <v>0.6670363790170629</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00204021695156072</v>
+        <v>0.001762123931476797</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1102211485398881</v>
+        <v>0.05193285143878854</v>
       </c>
       <c r="F80" t="n">
-        <v>3.405287522706632e-05</v>
+        <v>3.004308988510255e-05</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1398168502386964</v>
+        <v>0.2404869166499423</v>
       </c>
       <c r="H80" t="n">
-        <v>0.006051887738187932</v>
+        <v>0.003795131573241794</v>
       </c>
       <c r="I80" t="n">
-        <v>0.003152169001586482</v>
+        <v>0.001940550116889359</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02139769773715841</v>
+        <v>0.004061363367432714</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0006589313308771764</v>
+        <v>0.008723187056245267</v>
       </c>
       <c r="L80" t="n">
-        <v>0.000592318487550789</v>
+        <v>0.0002788858045316627</v>
       </c>
       <c r="M80" t="n">
-        <v>0.001812694504443015</v>
+        <v>0.001473754228167313</v>
       </c>
       <c r="N80" t="n">
-        <v>0.6930919992143928</v>
+        <v>0.6670363790170629</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4943,1902 +4943,278 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45417.fa</t>
+          <t>even_MAG-GUT80318.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1497897858241552</v>
+        <v>0.05620876521326919</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04098343852019789</v>
+        <v>0.4014882816955626</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01301798262563419</v>
+        <v>0.02047037993261473</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6261998793223998</v>
+        <v>0.1448891563748385</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0003267617541525819</v>
+        <v>0.000129075799698053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0593542862273299</v>
+        <v>0.2392043835810326</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02978526035337147</v>
+        <v>0.02803121111612927</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01166419420114512</v>
+        <v>0.007138832792023877</v>
       </c>
       <c r="J81" t="n">
-        <v>0.006730780886758179</v>
+        <v>0.06533762896627635</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0009041150498460201</v>
+        <v>0.0334557569281571</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0006160091413831984</v>
+        <v>0.0008472135008026682</v>
       </c>
       <c r="M81" t="n">
-        <v>0.06062750609362624</v>
+        <v>0.002799314099594974</v>
       </c>
       <c r="N81" t="n">
-        <v>0.6261998793223998</v>
+        <v>0.4014882816955626</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45814.fa</t>
+          <t>even_MAG-GUT80792.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.08250157380688118</v>
+        <v>0.01137431008080861</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1661272166424728</v>
+        <v>0.7514956368826676</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01300697207469604</v>
+        <v>0.0009754675905681949</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2404285216655743</v>
+        <v>0.04113165839138354</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0008743190463318251</v>
+        <v>2.349005863335417e-05</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3419268326626375</v>
+        <v>0.1744488068197419</v>
       </c>
       <c r="H82" t="n">
-        <v>0.008365803075092682</v>
+        <v>0.005933178044151383</v>
       </c>
       <c r="I82" t="n">
-        <v>0.003031757083101052</v>
+        <v>0.001144472678780676</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04884874040519237</v>
+        <v>0.0112545011686451</v>
       </c>
       <c r="K82" t="n">
-        <v>0.08692202167576694</v>
+        <v>0.001094243539063337</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0003969635923655083</v>
+        <v>0.0002336265298429244</v>
       </c>
       <c r="M82" t="n">
-        <v>0.007569278269887711</v>
+        <v>0.0008906082157133123</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3419268326626375</v>
+        <v>0.7514956368826676</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46540.fa</t>
+          <t>even_MAG-GUT82165.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1015591817075605</v>
+        <v>0.03616263711723226</v>
       </c>
       <c r="C83" t="n">
-        <v>0.008772963149681989</v>
+        <v>0.4315124545601861</v>
       </c>
       <c r="D83" t="n">
-        <v>0.05451655215787893</v>
+        <v>0.00358201944544926</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6714504612291183</v>
+        <v>0.09590818837612838</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0002095999326235955</v>
+        <v>5.0095327826693e-05</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01415446333267056</v>
+        <v>0.1106438960987835</v>
       </c>
       <c r="H83" t="n">
-        <v>0.06629809842090539</v>
+        <v>0.01657874403872186</v>
       </c>
       <c r="I83" t="n">
-        <v>0.009172388163940169</v>
+        <v>0.004775796659869411</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01320527740185565</v>
+        <v>0.00293592541930645</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0007262068735795393</v>
+        <v>0.2952882758929319</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0003573113601222375</v>
+        <v>0.0004268639943073661</v>
       </c>
       <c r="M83" t="n">
-        <v>0.05957749627006329</v>
+        <v>0.002135103069257014</v>
       </c>
       <c r="N83" t="n">
-        <v>0.6714504612291183</v>
+        <v>0.4315124545601861</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp000436535</t>
+          <t>s__Lachnospira rogosae_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46914.fa</t>
+          <t>even_MAG-GUT9396.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.05446594004081327</v>
+        <v>0.01973921306638121</v>
       </c>
       <c r="C84" t="n">
-        <v>0.288465497786867</v>
+        <v>3.136048688405357e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01438038736975356</v>
+        <v>0.9452893592024849</v>
       </c>
       <c r="E84" t="n">
-        <v>0.09711047785681383</v>
+        <v>0.02620654305833557</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0001464808578018835</v>
+        <v>2.095160806157333e-05</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3339202578983506</v>
+        <v>0.001708539928323234</v>
       </c>
       <c r="H84" t="n">
-        <v>0.02423999720707332</v>
+        <v>0.004049921961325437</v>
       </c>
       <c r="I84" t="n">
-        <v>0.004102877717262041</v>
+        <v>0.001463963384459696</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02281750253512784</v>
+        <v>0.0002621511447421141</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1562031901302956</v>
+        <v>0.0004948581610318012</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001003303074886896</v>
+        <v>5.043294438991583e-05</v>
       </c>
       <c r="M84" t="n">
-        <v>0.003144087524954087</v>
+        <v>0.0006827050535805152</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3339202578983506</v>
+        <v>0.9452893592024849</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>s__Lachnospira sp003451515</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47256.fa</t>
+          <t>even_MAG-GUT9405.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01783785287378326</v>
+        <v>0.01740768056350765</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7041951303980737</v>
+        <v>6.489530168319868e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001067737035792868</v>
+        <v>0.9186340199690969</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05935404445652166</v>
+        <v>0.04681606743550107</v>
       </c>
       <c r="F85" t="n">
-        <v>6.074877142615001e-05</v>
+        <v>3.233841173392191e-05</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1947318804883205</v>
+        <v>0.006592532042443478</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002199481264818211</v>
+        <v>0.007237556185470925</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0008855975056990716</v>
+        <v>0.001460499005767183</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0145096406533673</v>
+        <v>0.0008361762450132124</v>
       </c>
       <c r="K85" t="n">
-        <v>0.00426889714774143</v>
+        <v>0.000171933642709819</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0001571422731569988</v>
+        <v>6.238890328191659e-05</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0007318471312989321</v>
+        <v>0.0006839122937906954</v>
       </c>
       <c r="N85" t="n">
-        <v>0.7041951303980737</v>
+        <v>0.9186340199690969</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>s__Lachnospira rogosae_A</t>
+          <t>s__Lachnospira sp000436475</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT50240.fa</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.01599720601204848</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7.852396842968628e-05</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.8959473892299351</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.04096541717002832</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4.303117541820059e-05</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.02720151330183064</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.009353426717084171</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.001259150512193467</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.0002570276295130767</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.008153786792172131</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.466214546541563e-05</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.0007088653458812464</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.8959473892299351</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436475</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436475</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5168.fa</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.08829864414106911</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.002273133292666193</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.01143682701965908</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.01305955608717805</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.003568551753300057</v>
-      </c>
-      <c r="G87" t="n">
-        <v>7.214073914671872e-05</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.06923637475040979</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.7910813050801169</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.003557067692936533</v>
-      </c>
-      <c r="K87" t="n">
-        <v>5.881883835847481e-05</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.002078488016282356</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.01527909258887674</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.7910813050801169</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp900316325</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp900316325</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT52995.fa</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.06971150521867041</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.4641593691520142</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.01846394553340028</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.1343400194951616</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0002371212246838232</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.2564530913961841</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.01033613616450982</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.003225176718595923</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.03442782832725847</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.003231953852022045</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.0003710170052071717</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.005042835912291885</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.4641593691520142</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT53015.fa</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.0802268074609926</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.225971243946628</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.01513021903660206</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.2326504400305516</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0002452583930279561</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.3359644105939978</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.03824429947123615</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.005975592205645926</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.04349095152230989</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01378058082414166</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.0008162838095275132</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.007503912705338736</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.3359644105939978</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT53019.fa</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.02903664426007136</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.556815258958519</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.02613747636163393</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.03216183014271388</v>
-      </c>
-      <c r="F90" t="n">
-        <v>2.810913779270856e-05</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.09277062561908533</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.004541334167221552</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.007947943376283193</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.004465576584481199</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.2420757978334466</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.001056465355568737</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.002962938203182301</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.556815258958519</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT53033.fa</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.0283572372791011</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.6985497164129605</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.00534689204035051</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.06625287360085022</v>
-      </c>
-      <c r="F91" t="n">
-        <v>8.195027346678146e-05</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.1600531229805145</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.002634352941755148</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.001259404056931487</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.02798115992594128</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.008280106574930307</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.00022739745824918</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.0009757864549488714</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.6985497164129605</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59273.fa</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.02622533460329419</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.6287586822209318</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.001131896877664495</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.1155223020268979</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7.772717518614601e-05</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.1311734986495348</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.003405003200314698</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.001278251403943109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.08943028817853252</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.001462930272745453</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.0003053773346088911</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.001228708056346252</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.6287586822209318</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT59827.fa</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.02679501733864982</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.6840065165588441</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.004161883107374789</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.1160845391073965</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5.939259968979006e-05</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.1247451986512008</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.00745355298461551</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.002102372785000977</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.0321644353474425</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.0002168722542720436</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.0007385473104034395</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.00147167195510962</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.6840065165588441</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT61486.fa</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.1555771889403557</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.2036964613817664</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.02287242764807821</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.2434028292112231</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0002373209543583959</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.107363826411216</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.04349403443153636</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.06045410512668426</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.014048698967376</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.1206894102985304</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.002265160681020513</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.02589853594785463</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.2434028292112231</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436535</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436535(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT64686.fa</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.01671039511384997</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.006501254347895994</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.308952006272249e-06</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.0004710600386496603</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.9728952919591035</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.0002747104267136716</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1.439100281272311e-05</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.001661163522418746</v>
-      </c>
-      <c r="J95" t="n">
-        <v>4.216495065177329e-07</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.0001321240824334907</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.339033594004196e-05</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.001304488568669309</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.9728952919591035</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66011.fa</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.07266866360208218</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.1633682290671593</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.1288901692231886</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.1392526263330258</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.0001287781736823842</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.2981861936587717</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.04356380215443317</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.01277103445979986</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.07191918991390235</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.05589793413668519</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.004798465848188953</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.00855491342908039</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.2981861936587717</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66278.fa</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.03755009653815069</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.5489243651969303</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.002353319423185515</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.09638788737209861</v>
-      </c>
-      <c r="F97" t="n">
-        <v>6.547185018175235e-05</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.2867068410432762</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.006295803990989767</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.002865975598618884</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.009458351106464638</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.00465307544347528</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.0005204831398661433</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.004218329296762254</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.5489243651969303</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66288.fa</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.05077091583147211</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.3756208863817079</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.0321448054657707</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.1058434871265143</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.0001037978341246952</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.2541039011414524</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.01572882613263111</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.007334375251555899</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.03549081150520444</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.1204167661284078</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.0009976552364877821</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.001443771964670956</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.3756208863817079</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66335.fa</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.03240343479206747</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.4819944510350365</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.001680159652128126</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.1624276967056381</v>
-      </c>
-      <c r="F99" t="n">
-        <v>9.458171242013053e-05</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.1538856537637706</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.002739032165882554</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.001975647377794718</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.05309866795237513</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.1061668233056612</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.0003570011602904853</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.00317685037693499</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.4819944510350365</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT68269.fa</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.05259344381063705</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.1873007764404059</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.00321455814485217</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.2184516491188211</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0001957457965723601</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.3966791090334176</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.0109706310138481</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.003877470985056614</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.02013555231308184</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.09589666198433469</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.0004535892270390314</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.01023081213193326</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.3966791090334176</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69364.fa</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.01729816714984555</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.005451230024523255</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.411089307556796e-06</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.0003994853529393169</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.9735927718812991</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.0005386542021397726</v>
-      </c>
-      <c r="H101" t="n">
-        <v>4.262539343552292e-05</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.002023584446307933</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.482765319173819e-06</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.0002290385066513558</v>
-      </c>
-      <c r="L101" t="n">
-        <v>7.188068039139298e-05</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.0003496685078401935</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.9735927718812991</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69432.fa</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.05024382401685207</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.1611515983947335</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.002256761321744579</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.1452630464776359</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0001962748747872846</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.5532313156777293</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.01076958491253553</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.002784339812248025</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.01214679931041624</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.05576236900807532</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.0002007041192187564</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.005993382074023355</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.5532313156777293</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp003451515</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT69468.fa</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.01923725713407567</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.008643240420364226</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.295392580895105e-06</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.0008054818227960687</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9685838859688373</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.0001147629208123736</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1.344791806961251e-05</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.0019825565653996</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.615433040323371e-07</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.0001679793253399241</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2.9461810329266e-05</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.0004199691780911489</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.9685838859688373</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71840.fa</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.02100842581175838</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.6290523545400437</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.001969039482279636</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.1279265668663911</v>
-      </c>
-      <c r="F104" t="n">
-        <v>4.801484776390756e-05</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.1965169669566664</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.004657968317546103</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.001727271237304545</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.007626903976623241</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.00704065418424615</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.0005808917631006181</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.00184494201627648</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.6290523545400437</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73968.fa</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.1085571276817549</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.0176366238022486</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.1340600182312572</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.5984057047450824</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.0003979917585517954</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.05298133748849828</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.01198287151318635</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.008311230479471717</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.04566674149141912</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.002328017469393006</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.000565216710225873</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.019107118628911</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.5984057047450824</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436535</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436535</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT74997.fa</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.02924303097393512</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.6825062173759439</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.003436275510924778</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.1350605222953108</v>
-      </c>
-      <c r="F106" t="n">
-        <v>5.105610952831121e-05</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.1290914850972314</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.005606154436169594</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.002439020685832888</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.005578518026070309</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.005195072363490652</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.0003808898812116441</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.001411757244350855</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.6825062173759439</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77408.fa</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.01847881372633627</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.6670363790170629</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.001762123931476797</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.05193285143878854</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3.004308988510255e-05</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.2404869166499423</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.003795131573241794</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.001940550116889359</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.004061363367432714</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.008723187056245267</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.0002788858045316627</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.001473754228167313</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.6670363790170629</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80318.fa</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.05620876521326919</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.4014882816955626</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.02047037993261473</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.1448891563748385</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.000129075799698053</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.2392043835810326</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.02803121111612927</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.007138832792023877</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.06533762896627635</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.0334557569281571</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.0008472135008026682</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.002799314099594974</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.4014882816955626</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80437.fa</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.007891348917512113</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.0008423968140831832</v>
-      </c>
-      <c r="D109" t="n">
-        <v>6.299073476077494e-07</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.0001854243173539249</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.9805821380638536</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.008226325614119631</v>
-      </c>
-      <c r="H109" t="n">
-        <v>7.04332216766059e-06</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.0008878107108747779</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3.623018497782488e-07</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6.881363528350131e-05</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2.115201874437958e-05</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.001286554376809712</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.9805821380638536</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT80792.fa</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.01137431008080861</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.7514956368826676</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.0009754675905681949</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.04113165839138354</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2.349005863335417e-05</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.1744488068197419</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.005933178044151383</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.001144472678780676</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.0112545011686451</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.001094243539063337</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.0002336265298429244</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.0008906082157133123</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.7514956368826676</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT82165.fa</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.03616263711723226</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.4315124545601861</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.00358201944544926</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.09590818837612838</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5.0095327826693e-05</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.1106438960987835</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.01657874403872186</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.004775796659869411</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.00293592541930645</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.2952882758929319</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.0004268639943073661</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.002135103069257014</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.4315124545601861</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>s__Lachnospira rogosae_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84500.fa</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.01361476876857255</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.004718370005171178</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.619543941512724e-07</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.0006503950099478696</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.977754808969056</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.000243618790951865</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1.230448563246857e-05</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.001925091799611715</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5.973036440608184e-07</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.0001446424731772694</v>
-      </c>
-      <c r="L112" t="n">
-        <v>3.00552689902977e-05</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.0009045851708507255</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.977754808969056</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000437735</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9396.fa</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.01973921306638121</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3.136048688405357e-05</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9452893592024849</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.02620654305833557</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2.095160806157333e-05</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.001708539928323234</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.004049921961325437</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.001463963384459696</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.0002621511447421141</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.0004948581610318012</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.043294438991583e-05</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.0006827050535805152</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.9452893592024849</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436475</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436475</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9405.fa</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.01740768056350765</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.489530168319868e-05</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9186340199690969</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.04681606743550107</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3.233841173392191e-05</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.006592532042443478</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.007237556185470925</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.001460499005767183</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.0008361762450132124</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.000171933642709819</v>
-      </c>
-      <c r="L114" t="n">
-        <v>6.238890328191659e-05</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.0006839122937906954</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.9186340199690969</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>s__Lachnospira sp000436475</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
         <is>
           <t>s__Lachnospira sp000436475</t>
         </is>
